--- a/emx/cosas-portal/cosasportal.xlsx
+++ b/emx/cosas-portal/cosasportal.xlsx
@@ -31,7 +31,7 @@
     <t xml:space="preserve">COSAS Portal</t>
   </si>
   <si>
-    <t xml:space="preserve">Staging tables for raw data extracts (v0.9, 2021-07-06)</t>
+    <t xml:space="preserve">Staging tables for raw data extracts (v0.9001, 2021-07-09)</t>
   </si>
   <si>
     <t xml:space="preserve">label-nl</t>

--- a/emx/cosas-portal/cosasportal.xlsx
+++ b/emx/cosas-portal/cosasportal.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -31,7 +31,7 @@
     <t xml:space="preserve">COSAS Portal</t>
   </si>
   <si>
-    <t xml:space="preserve">Staging tables for raw data extracts (v0.9001, 2021-07-09)</t>
+    <t xml:space="preserve">Staging tables for raw data extracts (v0.9002, 2021-07-13)</t>
   </si>
   <si>
     <t xml:space="preserve">label-nl</t>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t xml:space="preserve">Familieleden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text</t>
   </si>
   <si>
     <t xml:space="preserve">UMCG_moeder</t>
@@ -400,7 +403,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -719,10 +722,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -755,10 +758,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -929,10 +932,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -944,13 +947,13 @@
         <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>39</v>
       </c>
       <c r="F1" t="s">
         <v>40</v>
@@ -981,11 +984,11 @@
       <c r="B2" t="s">
         <v>46</v>
       </c>
-      <c r="C2"/>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
       <c r="D2"/>
-      <c r="E2" t="s">
-        <v>47</v>
-      </c>
+      <c r="E2"/>
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
@@ -1007,11 +1010,11 @@
       <c r="B3" t="s">
         <v>46</v>
       </c>
-      <c r="C3"/>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
       <c r="D3"/>
-      <c r="E3" t="s">
-        <v>47</v>
-      </c>
+      <c r="E3"/>
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3"/>
@@ -1033,11 +1036,11 @@
       <c r="B4" t="s">
         <v>46</v>
       </c>
-      <c r="C4"/>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
       <c r="D4"/>
-      <c r="E4" t="s">
-        <v>47</v>
-      </c>
+      <c r="E4"/>
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
@@ -1059,11 +1062,11 @@
       <c r="B5" t="s">
         <v>46</v>
       </c>
-      <c r="C5"/>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
       <c r="D5"/>
-      <c r="E5" t="s">
-        <v>47</v>
-      </c>
+      <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5"/>
@@ -1085,11 +1088,11 @@
       <c r="B6" t="s">
         <v>46</v>
       </c>
-      <c r="C6"/>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
       <c r="D6"/>
-      <c r="E6" t="s">
-        <v>47</v>
-      </c>
+      <c r="E6"/>
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6"/>
@@ -1111,11 +1114,11 @@
       <c r="B7" t="s">
         <v>46</v>
       </c>
-      <c r="C7"/>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
       <c r="D7"/>
-      <c r="E7" t="s">
-        <v>47</v>
-      </c>
+      <c r="E7"/>
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7"/>
@@ -1132,16 +1135,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
         <v>46</v>
       </c>
-      <c r="C8"/>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
       <c r="D8"/>
-      <c r="E8" t="s">
-        <v>47</v>
-      </c>
+      <c r="E8"/>
       <c r="F8"/>
       <c r="G8"/>
       <c r="H8"/>
@@ -1158,16 +1161,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
       </c>
-      <c r="C9"/>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
       <c r="D9"/>
-      <c r="E9" t="s">
-        <v>47</v>
-      </c>
+      <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9"/>
@@ -1184,16 +1187,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
         <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
         <v>56</v>
@@ -1216,22 +1219,22 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
         <v>46</v>
       </c>
-      <c r="C11"/>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
       <c r="D11"/>
-      <c r="E11" t="s">
-        <v>47</v>
-      </c>
+      <c r="E11"/>
       <c r="F11"/>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I11" t="b">
         <v>1</v>
@@ -1248,16 +1251,16 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12"/>
+        <v>62</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
       <c r="D12"/>
-      <c r="E12" t="s">
-        <v>47</v>
-      </c>
+      <c r="E12"/>
       <c r="F12"/>
       <c r="G12"/>
       <c r="H12"/>
@@ -1274,16 +1277,16 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
         <v>62</v>
       </c>
-      <c r="B13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13"/>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
       <c r="D13"/>
-      <c r="E13" t="s">
-        <v>47</v>
-      </c>
+      <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
       <c r="H13"/>
@@ -1300,16 +1303,16 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14"/>
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
       <c r="D14"/>
-      <c r="E14" t="s">
-        <v>47</v>
-      </c>
+      <c r="E14"/>
       <c r="F14"/>
       <c r="G14"/>
       <c r="H14"/>
@@ -1326,16 +1329,16 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15"/>
+        <v>62</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
       <c r="D15"/>
-      <c r="E15" t="s">
-        <v>47</v>
-      </c>
+      <c r="E15"/>
       <c r="F15"/>
       <c r="G15"/>
       <c r="H15"/>
@@ -1352,16 +1355,16 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16"/>
+        <v>62</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
       <c r="D16"/>
-      <c r="E16" t="s">
-        <v>47</v>
-      </c>
+      <c r="E16"/>
       <c r="F16"/>
       <c r="G16"/>
       <c r="H16"/>
@@ -1378,16 +1381,16 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17"/>
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
       <c r="D17"/>
-      <c r="E17" t="s">
-        <v>47</v>
-      </c>
+      <c r="E17"/>
       <c r="F17"/>
       <c r="G17"/>
       <c r="H17"/>
@@ -1404,16 +1407,16 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18"/>
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
       <c r="D18"/>
-      <c r="E18" t="s">
-        <v>47</v>
-      </c>
+      <c r="E18"/>
       <c r="F18"/>
       <c r="G18"/>
       <c r="H18"/>
@@ -1430,22 +1433,22 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19"/>
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
       <c r="D19"/>
-      <c r="E19" t="s">
-        <v>47</v>
-      </c>
+      <c r="E19"/>
       <c r="F19"/>
       <c r="G19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I19" t="b">
         <v>1</v>
@@ -1462,16 +1465,16 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20"/>
+        <v>70</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
       <c r="D20"/>
-      <c r="E20" t="s">
-        <v>47</v>
-      </c>
+      <c r="E20"/>
       <c r="F20"/>
       <c r="G20"/>
       <c r="H20"/>
@@ -1488,16 +1491,16 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" t="s">
         <v>70</v>
       </c>
-      <c r="B21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21"/>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
       <c r="D21"/>
-      <c r="E21" t="s">
-        <v>47</v>
-      </c>
+      <c r="E21"/>
       <c r="F21"/>
       <c r="G21"/>
       <c r="H21"/>
@@ -1514,16 +1517,16 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22"/>
+        <v>70</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
       <c r="D22"/>
-      <c r="E22" t="s">
-        <v>47</v>
-      </c>
+      <c r="E22"/>
       <c r="F22"/>
       <c r="G22"/>
       <c r="H22"/>
@@ -1540,16 +1543,16 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23"/>
+        <v>70</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
       <c r="D23"/>
-      <c r="E23" t="s">
-        <v>47</v>
-      </c>
+      <c r="E23"/>
       <c r="F23"/>
       <c r="G23"/>
       <c r="H23"/>
@@ -1566,16 +1569,16 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24"/>
+        <v>70</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
       <c r="D24"/>
-      <c r="E24" t="s">
-        <v>47</v>
-      </c>
+      <c r="E24"/>
       <c r="F24"/>
       <c r="G24"/>
       <c r="H24"/>
@@ -1592,16 +1595,16 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25"/>
+        <v>70</v>
+      </c>
+      <c r="C25" t="s">
+        <v>47</v>
+      </c>
       <c r="D25"/>
-      <c r="E25" t="s">
-        <v>47</v>
-      </c>
+      <c r="E25"/>
       <c r="F25"/>
       <c r="G25"/>
       <c r="H25"/>
@@ -1618,16 +1621,16 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26"/>
+        <v>70</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
       <c r="D26"/>
-      <c r="E26" t="s">
-        <v>47</v>
-      </c>
+      <c r="E26"/>
       <c r="F26"/>
       <c r="G26"/>
       <c r="H26"/>
@@ -1644,16 +1647,16 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27"/>
+        <v>70</v>
+      </c>
+      <c r="C27" t="s">
+        <v>53</v>
+      </c>
       <c r="D27"/>
-      <c r="E27" t="s">
-        <v>47</v>
-      </c>
+      <c r="E27"/>
       <c r="F27"/>
       <c r="G27"/>
       <c r="H27"/>
@@ -1670,16 +1673,16 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28"/>
+        <v>70</v>
+      </c>
+      <c r="C28" t="s">
+        <v>47</v>
+      </c>
       <c r="D28"/>
-      <c r="E28" t="s">
-        <v>47</v>
-      </c>
+      <c r="E28"/>
       <c r="F28"/>
       <c r="G28"/>
       <c r="H28"/>
@@ -1696,16 +1699,16 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29"/>
+        <v>70</v>
+      </c>
+      <c r="C29" t="s">
+        <v>47</v>
+      </c>
       <c r="D29"/>
-      <c r="E29" t="s">
-        <v>47</v>
-      </c>
+      <c r="E29"/>
       <c r="F29"/>
       <c r="G29"/>
       <c r="H29"/>
@@ -1722,22 +1725,22 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30"/>
+        <v>70</v>
+      </c>
+      <c r="C30" t="s">
+        <v>47</v>
+      </c>
       <c r="D30"/>
-      <c r="E30" t="s">
-        <v>47</v>
-      </c>
+      <c r="E30"/>
       <c r="F30"/>
       <c r="G30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I30" t="b">
         <v>1</v>
@@ -1754,16 +1757,16 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
-      </c>
-      <c r="C31"/>
+        <v>80</v>
+      </c>
+      <c r="C31" t="s">
+        <v>47</v>
+      </c>
       <c r="D31"/>
-      <c r="E31" t="s">
-        <v>47</v>
-      </c>
+      <c r="E31"/>
       <c r="F31"/>
       <c r="G31"/>
       <c r="H31"/>
@@ -1780,16 +1783,16 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32"/>
+        <v>80</v>
+      </c>
+      <c r="C32" t="s">
+        <v>47</v>
+      </c>
       <c r="D32"/>
-      <c r="E32" t="s">
-        <v>47</v>
-      </c>
+      <c r="E32"/>
       <c r="F32"/>
       <c r="G32"/>
       <c r="H32"/>
@@ -1806,16 +1809,16 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B33" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33"/>
+        <v>80</v>
+      </c>
+      <c r="C33" t="s">
+        <v>47</v>
+      </c>
       <c r="D33"/>
-      <c r="E33" t="s">
-        <v>47</v>
-      </c>
+      <c r="E33"/>
       <c r="F33"/>
       <c r="G33"/>
       <c r="H33"/>
@@ -1832,16 +1835,16 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" t="s">
         <v>80</v>
       </c>
-      <c r="B34" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34"/>
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
       <c r="D34"/>
-      <c r="E34" t="s">
-        <v>47</v>
-      </c>
+      <c r="E34"/>
       <c r="F34"/>
       <c r="G34"/>
       <c r="H34"/>
@@ -1858,16 +1861,16 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
-      </c>
-      <c r="C35"/>
+        <v>80</v>
+      </c>
+      <c r="C35" t="s">
+        <v>47</v>
+      </c>
       <c r="D35"/>
-      <c r="E35" t="s">
-        <v>47</v>
-      </c>
+      <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
       <c r="H35"/>
@@ -1884,16 +1887,16 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36"/>
+        <v>80</v>
+      </c>
+      <c r="C36" t="s">
+        <v>47</v>
+      </c>
       <c r="D36"/>
-      <c r="E36" t="s">
-        <v>47</v>
-      </c>
+      <c r="E36"/>
       <c r="F36"/>
       <c r="G36"/>
       <c r="H36"/>
@@ -1910,16 +1913,16 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B37" t="s">
-        <v>79</v>
-      </c>
-      <c r="C37"/>
+        <v>80</v>
+      </c>
+      <c r="C37" t="s">
+        <v>47</v>
+      </c>
       <c r="D37"/>
-      <c r="E37" t="s">
-        <v>47</v>
-      </c>
+      <c r="E37"/>
       <c r="F37"/>
       <c r="G37"/>
       <c r="H37"/>
@@ -1936,16 +1939,16 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38"/>
+        <v>80</v>
+      </c>
+      <c r="C38" t="s">
+        <v>47</v>
+      </c>
       <c r="D38"/>
-      <c r="E38" t="s">
-        <v>47</v>
-      </c>
+      <c r="E38"/>
       <c r="F38"/>
       <c r="G38"/>
       <c r="H38"/>
@@ -1962,16 +1965,16 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
-      </c>
-      <c r="C39"/>
+        <v>80</v>
+      </c>
+      <c r="C39" t="s">
+        <v>47</v>
+      </c>
       <c r="D39"/>
-      <c r="E39" t="s">
-        <v>47</v>
-      </c>
+      <c r="E39"/>
       <c r="F39"/>
       <c r="G39"/>
       <c r="H39"/>
@@ -1988,16 +1991,16 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40"/>
+        <v>80</v>
+      </c>
+      <c r="C40" t="s">
+        <v>53</v>
+      </c>
       <c r="D40"/>
-      <c r="E40" t="s">
-        <v>47</v>
-      </c>
+      <c r="E40"/>
       <c r="F40"/>
       <c r="G40"/>
       <c r="H40"/>
@@ -2014,16 +2017,16 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
-      </c>
-      <c r="C41"/>
+        <v>80</v>
+      </c>
+      <c r="C41" t="s">
+        <v>47</v>
+      </c>
       <c r="D41"/>
-      <c r="E41" t="s">
-        <v>47</v>
-      </c>
+      <c r="E41"/>
       <c r="F41"/>
       <c r="G41"/>
       <c r="H41"/>
@@ -2040,16 +2043,16 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B42" t="s">
-        <v>79</v>
-      </c>
-      <c r="C42"/>
+        <v>80</v>
+      </c>
+      <c r="C42" t="s">
+        <v>47</v>
+      </c>
       <c r="D42"/>
-      <c r="E42" t="s">
-        <v>47</v>
-      </c>
+      <c r="E42"/>
       <c r="F42"/>
       <c r="G42"/>
       <c r="H42"/>
@@ -2066,16 +2069,16 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
-      </c>
-      <c r="C43"/>
+        <v>80</v>
+      </c>
+      <c r="C43" t="s">
+        <v>47</v>
+      </c>
       <c r="D43"/>
-      <c r="E43" t="s">
-        <v>47</v>
-      </c>
+      <c r="E43"/>
       <c r="F43"/>
       <c r="G43"/>
       <c r="H43"/>
@@ -2092,16 +2095,16 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B44" t="s">
-        <v>79</v>
-      </c>
-      <c r="C44"/>
+        <v>80</v>
+      </c>
+      <c r="C44" t="s">
+        <v>47</v>
+      </c>
       <c r="D44"/>
-      <c r="E44" t="s">
-        <v>47</v>
-      </c>
+      <c r="E44"/>
       <c r="F44"/>
       <c r="G44"/>
       <c r="H44"/>
@@ -2118,16 +2121,16 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
-      </c>
-      <c r="C45"/>
+        <v>80</v>
+      </c>
+      <c r="C45" t="s">
+        <v>47</v>
+      </c>
       <c r="D45"/>
-      <c r="E45" t="s">
-        <v>47</v>
-      </c>
+      <c r="E45"/>
       <c r="F45"/>
       <c r="G45"/>
       <c r="H45"/>
@@ -2144,16 +2147,16 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B46" t="s">
-        <v>79</v>
-      </c>
-      <c r="C46"/>
+        <v>80</v>
+      </c>
+      <c r="C46" t="s">
+        <v>47</v>
+      </c>
       <c r="D46"/>
-      <c r="E46" t="s">
-        <v>47</v>
-      </c>
+      <c r="E46"/>
       <c r="F46"/>
       <c r="G46"/>
       <c r="H46"/>
@@ -2170,16 +2173,16 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B47" t="s">
-        <v>79</v>
-      </c>
-      <c r="C47"/>
+        <v>80</v>
+      </c>
+      <c r="C47" t="s">
+        <v>47</v>
+      </c>
       <c r="D47"/>
-      <c r="E47" t="s">
-        <v>47</v>
-      </c>
+      <c r="E47"/>
       <c r="F47"/>
       <c r="G47"/>
       <c r="H47"/>
@@ -2196,16 +2199,16 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B48" t="s">
-        <v>79</v>
-      </c>
-      <c r="C48"/>
+        <v>80</v>
+      </c>
+      <c r="C48" t="s">
+        <v>47</v>
+      </c>
       <c r="D48"/>
-      <c r="E48" t="s">
-        <v>47</v>
-      </c>
+      <c r="E48"/>
       <c r="F48"/>
       <c r="G48"/>
       <c r="H48"/>
@@ -2222,16 +2225,16 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B49" t="s">
-        <v>79</v>
-      </c>
-      <c r="C49"/>
+        <v>80</v>
+      </c>
+      <c r="C49" t="s">
+        <v>47</v>
+      </c>
       <c r="D49"/>
-      <c r="E49" t="s">
-        <v>47</v>
-      </c>
+      <c r="E49"/>
       <c r="F49"/>
       <c r="G49"/>
       <c r="H49"/>
@@ -2248,16 +2251,16 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B50" t="s">
-        <v>79</v>
-      </c>
-      <c r="C50"/>
+        <v>80</v>
+      </c>
+      <c r="C50" t="s">
+        <v>53</v>
+      </c>
       <c r="D50"/>
-      <c r="E50" t="s">
-        <v>47</v>
-      </c>
+      <c r="E50"/>
       <c r="F50"/>
       <c r="G50"/>
       <c r="H50"/>
@@ -2274,16 +2277,16 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B51" t="s">
-        <v>79</v>
-      </c>
-      <c r="C51"/>
+        <v>80</v>
+      </c>
+      <c r="C51" t="s">
+        <v>53</v>
+      </c>
       <c r="D51"/>
-      <c r="E51" t="s">
-        <v>47</v>
-      </c>
+      <c r="E51"/>
       <c r="F51"/>
       <c r="G51"/>
       <c r="H51"/>
@@ -2300,16 +2303,16 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B52" t="s">
-        <v>79</v>
-      </c>
-      <c r="C52"/>
+        <v>80</v>
+      </c>
+      <c r="C52" t="s">
+        <v>47</v>
+      </c>
       <c r="D52"/>
-      <c r="E52" t="s">
-        <v>47</v>
-      </c>
+      <c r="E52"/>
       <c r="F52"/>
       <c r="G52"/>
       <c r="H52"/>
@@ -2326,16 +2329,16 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B53" t="s">
-        <v>79</v>
-      </c>
-      <c r="C53"/>
+        <v>80</v>
+      </c>
+      <c r="C53" t="s">
+        <v>47</v>
+      </c>
       <c r="D53"/>
-      <c r="E53" t="s">
-        <v>47</v>
-      </c>
+      <c r="E53"/>
       <c r="F53"/>
       <c r="G53"/>
       <c r="H53"/>
@@ -2352,16 +2355,16 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B54" t="s">
-        <v>79</v>
-      </c>
-      <c r="C54"/>
+        <v>80</v>
+      </c>
+      <c r="C54" t="s">
+        <v>47</v>
+      </c>
       <c r="D54"/>
-      <c r="E54" t="s">
-        <v>47</v>
-      </c>
+      <c r="E54"/>
       <c r="F54"/>
       <c r="G54"/>
       <c r="H54"/>
@@ -2378,16 +2381,16 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B55" t="s">
-        <v>79</v>
-      </c>
-      <c r="C55"/>
+        <v>80</v>
+      </c>
+      <c r="C55" t="s">
+        <v>53</v>
+      </c>
       <c r="D55"/>
-      <c r="E55" t="s">
-        <v>47</v>
-      </c>
+      <c r="E55"/>
       <c r="F55"/>
       <c r="G55"/>
       <c r="H55"/>
@@ -2404,16 +2407,16 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B56" t="s">
-        <v>79</v>
-      </c>
-      <c r="C56"/>
+        <v>80</v>
+      </c>
+      <c r="C56" t="s">
+        <v>47</v>
+      </c>
       <c r="D56"/>
-      <c r="E56" t="s">
-        <v>47</v>
-      </c>
+      <c r="E56"/>
       <c r="F56"/>
       <c r="G56"/>
       <c r="H56"/>
@@ -2430,16 +2433,16 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B57" t="s">
-        <v>79</v>
-      </c>
-      <c r="C57"/>
+        <v>80</v>
+      </c>
+      <c r="C57" t="s">
+        <v>47</v>
+      </c>
       <c r="D57"/>
-      <c r="E57" t="s">
-        <v>47</v>
-      </c>
+      <c r="E57"/>
       <c r="F57"/>
       <c r="G57"/>
       <c r="H57"/>
@@ -2456,16 +2459,16 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B58" t="s">
-        <v>79</v>
-      </c>
-      <c r="C58"/>
+        <v>80</v>
+      </c>
+      <c r="C58" t="s">
+        <v>47</v>
+      </c>
       <c r="D58"/>
-      <c r="E58" t="s">
-        <v>47</v>
-      </c>
+      <c r="E58"/>
       <c r="F58"/>
       <c r="G58"/>
       <c r="H58"/>
@@ -2482,22 +2485,22 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>79</v>
-      </c>
-      <c r="C59"/>
+        <v>80</v>
+      </c>
+      <c r="C59" t="s">
+        <v>47</v>
+      </c>
       <c r="D59"/>
-      <c r="E59" t="s">
-        <v>47</v>
-      </c>
+      <c r="E59"/>
       <c r="F59"/>
       <c r="G59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H59" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I59" t="b">
         <v>1</v>
@@ -2514,16 +2517,16 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B60" t="s">
-        <v>104</v>
-      </c>
-      <c r="C60"/>
+        <v>105</v>
+      </c>
+      <c r="C60" t="s">
+        <v>47</v>
+      </c>
       <c r="D60"/>
-      <c r="E60" t="s">
-        <v>47</v>
-      </c>
+      <c r="E60"/>
       <c r="F60"/>
       <c r="G60"/>
       <c r="H60"/>
@@ -2540,16 +2543,16 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>106</v>
+      </c>
+      <c r="B61" t="s">
         <v>105</v>
       </c>
-      <c r="B61" t="s">
-        <v>104</v>
-      </c>
-      <c r="C61"/>
+      <c r="C61" t="s">
+        <v>47</v>
+      </c>
       <c r="D61"/>
-      <c r="E61" t="s">
-        <v>47</v>
-      </c>
+      <c r="E61"/>
       <c r="F61"/>
       <c r="G61"/>
       <c r="H61"/>
@@ -2566,16 +2569,16 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B62" t="s">
-        <v>104</v>
-      </c>
-      <c r="C62"/>
+        <v>105</v>
+      </c>
+      <c r="C62" t="s">
+        <v>47</v>
+      </c>
       <c r="D62"/>
-      <c r="E62" t="s">
-        <v>47</v>
-      </c>
+      <c r="E62"/>
       <c r="F62"/>
       <c r="G62"/>
       <c r="H62"/>
@@ -2592,16 +2595,16 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B63" t="s">
-        <v>104</v>
-      </c>
-      <c r="C63"/>
+        <v>105</v>
+      </c>
+      <c r="C63" t="s">
+        <v>47</v>
+      </c>
       <c r="D63"/>
-      <c r="E63" t="s">
-        <v>47</v>
-      </c>
+      <c r="E63"/>
       <c r="F63"/>
       <c r="G63"/>
       <c r="H63"/>
@@ -2618,16 +2621,16 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B64" t="s">
-        <v>104</v>
-      </c>
-      <c r="C64"/>
+        <v>105</v>
+      </c>
+      <c r="C64" t="s">
+        <v>47</v>
+      </c>
       <c r="D64"/>
-      <c r="E64" t="s">
-        <v>47</v>
-      </c>
+      <c r="E64"/>
       <c r="F64"/>
       <c r="G64"/>
       <c r="H64"/>
@@ -2644,16 +2647,16 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B65" t="s">
-        <v>104</v>
-      </c>
-      <c r="C65"/>
+        <v>105</v>
+      </c>
+      <c r="C65" t="s">
+        <v>47</v>
+      </c>
       <c r="D65"/>
-      <c r="E65" t="s">
-        <v>47</v>
-      </c>
+      <c r="E65"/>
       <c r="F65"/>
       <c r="G65"/>
       <c r="H65"/>
@@ -2670,16 +2673,16 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B66" t="s">
-        <v>104</v>
-      </c>
-      <c r="C66"/>
+        <v>105</v>
+      </c>
+      <c r="C66" t="s">
+        <v>47</v>
+      </c>
       <c r="D66"/>
-      <c r="E66" t="s">
-        <v>47</v>
-      </c>
+      <c r="E66"/>
       <c r="F66"/>
       <c r="G66"/>
       <c r="H66"/>
@@ -2696,22 +2699,22 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B67" t="s">
-        <v>104</v>
-      </c>
-      <c r="C67"/>
+        <v>105</v>
+      </c>
+      <c r="C67" t="s">
+        <v>47</v>
+      </c>
       <c r="D67"/>
-      <c r="E67" t="s">
-        <v>47</v>
-      </c>
+      <c r="E67"/>
       <c r="F67"/>
       <c r="G67" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H67" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I67" t="b">
         <v>1</v>
@@ -2728,16 +2731,16 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B68" t="s">
-        <v>111</v>
-      </c>
-      <c r="C68"/>
+        <v>112</v>
+      </c>
+      <c r="C68" t="s">
+        <v>47</v>
+      </c>
       <c r="D68"/>
-      <c r="E68" t="s">
-        <v>47</v>
-      </c>
+      <c r="E68"/>
       <c r="F68"/>
       <c r="G68"/>
       <c r="H68"/>
@@ -2754,16 +2757,16 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>111</v>
-      </c>
-      <c r="C69"/>
+        <v>112</v>
+      </c>
+      <c r="C69" t="s">
+        <v>47</v>
+      </c>
       <c r="D69"/>
-      <c r="E69" t="s">
-        <v>47</v>
-      </c>
+      <c r="E69"/>
       <c r="F69"/>
       <c r="G69"/>
       <c r="H69"/>
@@ -2780,16 +2783,16 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70" t="s">
-        <v>111</v>
-      </c>
-      <c r="C70"/>
+        <v>112</v>
+      </c>
+      <c r="C70" t="s">
+        <v>47</v>
+      </c>
       <c r="D70"/>
-      <c r="E70" t="s">
-        <v>47</v>
-      </c>
+      <c r="E70"/>
       <c r="F70"/>
       <c r="G70"/>
       <c r="H70"/>
@@ -2806,16 +2809,16 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B71" t="s">
-        <v>111</v>
-      </c>
-      <c r="C71"/>
+        <v>112</v>
+      </c>
+      <c r="C71" t="s">
+        <v>47</v>
+      </c>
       <c r="D71"/>
-      <c r="E71" t="s">
-        <v>47</v>
-      </c>
+      <c r="E71"/>
       <c r="F71"/>
       <c r="G71"/>
       <c r="H71"/>
@@ -2832,16 +2835,16 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>111</v>
-      </c>
-      <c r="C72"/>
+        <v>112</v>
+      </c>
+      <c r="C72" t="s">
+        <v>47</v>
+      </c>
       <c r="D72"/>
-      <c r="E72" t="s">
-        <v>47</v>
-      </c>
+      <c r="E72"/>
       <c r="F72"/>
       <c r="G72"/>
       <c r="H72"/>
@@ -2858,16 +2861,16 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>111</v>
-      </c>
-      <c r="C73"/>
+        <v>112</v>
+      </c>
+      <c r="C73" t="s">
+        <v>47</v>
+      </c>
       <c r="D73"/>
-      <c r="E73" t="s">
-        <v>47</v>
-      </c>
+      <c r="E73"/>
       <c r="F73"/>
       <c r="G73"/>
       <c r="H73"/>
@@ -2884,16 +2887,16 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>113</v>
+      </c>
+      <c r="B74" t="s">
         <v>112</v>
       </c>
-      <c r="B74" t="s">
-        <v>111</v>
-      </c>
-      <c r="C74"/>
+      <c r="C74" t="s">
+        <v>47</v>
+      </c>
       <c r="D74"/>
-      <c r="E74" t="s">
-        <v>47</v>
-      </c>
+      <c r="E74"/>
       <c r="F74"/>
       <c r="G74"/>
       <c r="H74"/>
@@ -2910,16 +2913,16 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B75" t="s">
-        <v>111</v>
-      </c>
-      <c r="C75"/>
+        <v>112</v>
+      </c>
+      <c r="C75" t="s">
+        <v>47</v>
+      </c>
       <c r="D75"/>
-      <c r="E75" t="s">
-        <v>47</v>
-      </c>
+      <c r="E75"/>
       <c r="F75"/>
       <c r="G75"/>
       <c r="H75"/>
@@ -2936,16 +2939,16 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B76" t="s">
-        <v>111</v>
-      </c>
-      <c r="C76"/>
+        <v>112</v>
+      </c>
+      <c r="C76" t="s">
+        <v>47</v>
+      </c>
       <c r="D76"/>
-      <c r="E76" t="s">
-        <v>47</v>
-      </c>
+      <c r="E76"/>
       <c r="F76"/>
       <c r="G76"/>
       <c r="H76"/>
@@ -2962,16 +2965,16 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B77" t="s">
-        <v>111</v>
-      </c>
-      <c r="C77"/>
+        <v>112</v>
+      </c>
+      <c r="C77" t="s">
+        <v>47</v>
+      </c>
       <c r="D77"/>
-      <c r="E77" t="s">
-        <v>47</v>
-      </c>
+      <c r="E77"/>
       <c r="F77"/>
       <c r="G77"/>
       <c r="H77"/>
@@ -2988,16 +2991,16 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B78" t="s">
-        <v>111</v>
-      </c>
-      <c r="C78"/>
+        <v>112</v>
+      </c>
+      <c r="C78" t="s">
+        <v>47</v>
+      </c>
       <c r="D78"/>
-      <c r="E78" t="s">
-        <v>47</v>
-      </c>
+      <c r="E78"/>
       <c r="F78"/>
       <c r="G78"/>
       <c r="H78"/>
@@ -3014,16 +3017,16 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B79" t="s">
-        <v>111</v>
-      </c>
-      <c r="C79"/>
+        <v>112</v>
+      </c>
+      <c r="C79" t="s">
+        <v>47</v>
+      </c>
       <c r="D79"/>
-      <c r="E79" t="s">
-        <v>47</v>
-      </c>
+      <c r="E79"/>
       <c r="F79"/>
       <c r="G79"/>
       <c r="H79"/>
@@ -3040,16 +3043,16 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B80" t="s">
-        <v>111</v>
-      </c>
-      <c r="C80"/>
+        <v>112</v>
+      </c>
+      <c r="C80" t="s">
+        <v>47</v>
+      </c>
       <c r="D80"/>
-      <c r="E80" t="s">
-        <v>47</v>
-      </c>
+      <c r="E80"/>
       <c r="F80"/>
       <c r="G80"/>
       <c r="H80"/>
@@ -3066,16 +3069,16 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B81" t="s">
-        <v>111</v>
-      </c>
-      <c r="C81"/>
+        <v>112</v>
+      </c>
+      <c r="C81" t="s">
+        <v>47</v>
+      </c>
       <c r="D81"/>
-      <c r="E81" t="s">
-        <v>47</v>
-      </c>
+      <c r="E81"/>
       <c r="F81"/>
       <c r="G81"/>
       <c r="H81"/>
@@ -3092,22 +3095,22 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B82" t="s">
-        <v>111</v>
-      </c>
-      <c r="C82"/>
+        <v>112</v>
+      </c>
+      <c r="C82" t="s">
+        <v>47</v>
+      </c>
       <c r="D82"/>
-      <c r="E82" t="s">
-        <v>47</v>
-      </c>
+      <c r="E82"/>
       <c r="F82"/>
       <c r="G82" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H82" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I82" t="b">
         <v>1</v>
@@ -3124,16 +3127,16 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B83" t="s">
-        <v>120</v>
-      </c>
-      <c r="C83"/>
+        <v>121</v>
+      </c>
+      <c r="C83" t="s">
+        <v>47</v>
+      </c>
       <c r="D83"/>
-      <c r="E83" t="s">
-        <v>47</v>
-      </c>
+      <c r="E83"/>
       <c r="F83"/>
       <c r="G83"/>
       <c r="H83"/>
@@ -3150,16 +3153,16 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B84" t="s">
-        <v>120</v>
-      </c>
-      <c r="C84"/>
+        <v>121</v>
+      </c>
+      <c r="C84" t="s">
+        <v>47</v>
+      </c>
       <c r="D84"/>
-      <c r="E84" t="s">
-        <v>47</v>
-      </c>
+      <c r="E84"/>
       <c r="F84"/>
       <c r="G84"/>
       <c r="H84"/>
@@ -3176,16 +3179,16 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B85" t="s">
-        <v>120</v>
-      </c>
-      <c r="C85"/>
+        <v>121</v>
+      </c>
+      <c r="C85" t="s">
+        <v>47</v>
+      </c>
       <c r="D85"/>
-      <c r="E85" t="s">
-        <v>47</v>
-      </c>
+      <c r="E85"/>
       <c r="F85"/>
       <c r="G85"/>
       <c r="H85"/>
@@ -3202,16 +3205,16 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B86" t="s">
-        <v>120</v>
-      </c>
-      <c r="C86"/>
+        <v>121</v>
+      </c>
+      <c r="C86" t="s">
+        <v>47</v>
+      </c>
       <c r="D86"/>
-      <c r="E86" t="s">
-        <v>47</v>
-      </c>
+      <c r="E86"/>
       <c r="F86"/>
       <c r="G86"/>
       <c r="H86"/>
@@ -3228,16 +3231,16 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
+        <v>122</v>
+      </c>
+      <c r="B87" t="s">
         <v>121</v>
       </c>
-      <c r="B87" t="s">
-        <v>120</v>
-      </c>
-      <c r="C87"/>
+      <c r="C87" t="s">
+        <v>47</v>
+      </c>
       <c r="D87"/>
-      <c r="E87" t="s">
-        <v>47</v>
-      </c>
+      <c r="E87"/>
       <c r="F87"/>
       <c r="G87"/>
       <c r="H87"/>
@@ -3254,16 +3257,16 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B88" t="s">
-        <v>120</v>
-      </c>
-      <c r="C88"/>
+        <v>121</v>
+      </c>
+      <c r="C88" t="s">
+        <v>47</v>
+      </c>
       <c r="D88"/>
-      <c r="E88" t="s">
-        <v>47</v>
-      </c>
+      <c r="E88"/>
       <c r="F88"/>
       <c r="G88"/>
       <c r="H88"/>
@@ -3280,16 +3283,16 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B89" t="s">
-        <v>120</v>
-      </c>
-      <c r="C89"/>
+        <v>121</v>
+      </c>
+      <c r="C89" t="s">
+        <v>47</v>
+      </c>
       <c r="D89"/>
-      <c r="E89" t="s">
-        <v>47</v>
-      </c>
+      <c r="E89"/>
       <c r="F89"/>
       <c r="G89"/>
       <c r="H89"/>
@@ -3306,16 +3309,16 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B90" t="s">
-        <v>120</v>
-      </c>
-      <c r="C90"/>
+        <v>121</v>
+      </c>
+      <c r="C90" t="s">
+        <v>47</v>
+      </c>
       <c r="D90"/>
-      <c r="E90" t="s">
-        <v>47</v>
-      </c>
+      <c r="E90"/>
       <c r="F90"/>
       <c r="G90"/>
       <c r="H90"/>
@@ -3332,16 +3335,16 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B91" t="s">
-        <v>120</v>
-      </c>
-      <c r="C91"/>
+        <v>121</v>
+      </c>
+      <c r="C91" t="s">
+        <v>47</v>
+      </c>
       <c r="D91"/>
-      <c r="E91" t="s">
-        <v>47</v>
-      </c>
+      <c r="E91"/>
       <c r="F91"/>
       <c r="G91"/>
       <c r="H91"/>
@@ -3358,16 +3361,16 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B92" t="s">
-        <v>120</v>
-      </c>
-      <c r="C92"/>
+        <v>121</v>
+      </c>
+      <c r="C92" t="s">
+        <v>47</v>
+      </c>
       <c r="D92"/>
-      <c r="E92" t="s">
-        <v>47</v>
-      </c>
+      <c r="E92"/>
       <c r="F92"/>
       <c r="G92"/>
       <c r="H92"/>
@@ -3384,16 +3387,16 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B93" t="s">
-        <v>120</v>
-      </c>
-      <c r="C93"/>
+        <v>121</v>
+      </c>
+      <c r="C93" t="s">
+        <v>47</v>
+      </c>
       <c r="D93"/>
-      <c r="E93" t="s">
-        <v>47</v>
-      </c>
+      <c r="E93"/>
       <c r="F93"/>
       <c r="G93"/>
       <c r="H93"/>
@@ -3410,16 +3413,16 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C94"/>
+        <v>121</v>
+      </c>
+      <c r="C94" t="s">
+        <v>47</v>
+      </c>
       <c r="D94"/>
-      <c r="E94" t="s">
-        <v>47</v>
-      </c>
+      <c r="E94"/>
       <c r="F94"/>
       <c r="G94"/>
       <c r="H94"/>
@@ -3436,16 +3439,16 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B95" t="s">
-        <v>120</v>
-      </c>
-      <c r="C95"/>
+        <v>121</v>
+      </c>
+      <c r="C95" t="s">
+        <v>47</v>
+      </c>
       <c r="D95"/>
-      <c r="E95" t="s">
-        <v>47</v>
-      </c>
+      <c r="E95"/>
       <c r="F95"/>
       <c r="G95"/>
       <c r="H95"/>
@@ -3462,22 +3465,22 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B96" t="s">
-        <v>120</v>
-      </c>
-      <c r="C96"/>
+        <v>121</v>
+      </c>
+      <c r="C96" t="s">
+        <v>47</v>
+      </c>
       <c r="D96"/>
-      <c r="E96" t="s">
-        <v>47</v>
-      </c>
+      <c r="E96"/>
       <c r="F96"/>
       <c r="G96" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H96" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I96" t="b">
         <v>1</v>

--- a/emx/cosas-portal/cosasportal.xlsx
+++ b/emx/cosas-portal/cosasportal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -31,7 +31,7 @@
     <t xml:space="preserve">COSAS Portal</t>
   </si>
   <si>
-    <t xml:space="preserve">Staging tables for raw data extracts (v0.9002, 2021-07-13)</t>
+    <t xml:space="preserve">Staging tables for raw data extracts (v0.9003, 2021-07-13)</t>
   </si>
   <si>
     <t xml:space="preserve">label-nl</t>
@@ -130,6 +130,18 @@
     <t xml:space="preserve">Ruwe NSG metadata van Darwin</t>
   </si>
   <si>
+    <t xml:space="preserve">bench_cnv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UMCG BenchCNV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staging table for CNV exports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stadiëringstabel voor CNV-gegevens</t>
+  </si>
+  <si>
     <t xml:space="preserve">entity</t>
   </si>
   <si>
@@ -398,6 +410,45 @@
   </si>
   <si>
     <t xml:space="preserve">GenomeBuild</t>
+  </si>
+  <si>
+    <t xml:space="preserve">primid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cosasportal_bench_cnv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UMCG Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UMCG nummber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">secid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Familie Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">externalid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phenotype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPO code (HPO:1234567)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">created</t>
   </si>
 </sst>
 </file>
@@ -925,6 +976,26 @@
         <v>3</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -944,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -956,7 +1027,7 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -965,27 +1036,27 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D2"/>
       <c r="E2"/>
@@ -1005,13 +1076,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -1031,13 +1102,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -1057,13 +1128,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
         <v>50</v>
       </c>
-      <c r="B5" t="s">
-        <v>46</v>
-      </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -1083,13 +1154,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -1109,13 +1180,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -1135,13 +1206,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -1161,13 +1232,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -1187,19 +1258,19 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -1219,22 +1290,22 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H11" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I11" t="b">
         <v>1</v>
@@ -1251,13 +1322,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -1277,13 +1348,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -1303,13 +1374,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -1329,13 +1400,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -1355,13 +1426,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" t="s">
         <v>66</v>
       </c>
-      <c r="B16" t="s">
-        <v>62</v>
-      </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -1381,13 +1452,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -1407,13 +1478,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -1433,22 +1504,22 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H19" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I19" t="b">
         <v>1</v>
@@ -1465,13 +1536,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -1491,13 +1562,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -1517,13 +1588,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -1543,13 +1614,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -1569,13 +1640,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" t="s">
         <v>74</v>
       </c>
-      <c r="B24" t="s">
-        <v>70</v>
-      </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -1595,13 +1666,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -1621,13 +1692,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -1647,13 +1718,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -1673,13 +1744,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -1699,13 +1770,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -1725,22 +1796,22 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D30"/>
       <c r="E30"/>
       <c r="F30"/>
       <c r="G30" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H30" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I30" t="b">
         <v>1</v>
@@ -1757,13 +1828,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D31"/>
       <c r="E31"/>
@@ -1783,13 +1854,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D32"/>
       <c r="E32"/>
@@ -1809,13 +1880,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C33" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D33"/>
       <c r="E33"/>
@@ -1835,13 +1906,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B34" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D34"/>
       <c r="E34"/>
@@ -1861,13 +1932,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D35"/>
       <c r="E35"/>
@@ -1887,13 +1958,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D36"/>
       <c r="E36"/>
@@ -1913,13 +1984,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D37"/>
       <c r="E37"/>
@@ -1939,13 +2010,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B38" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C38" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D38"/>
       <c r="E38"/>
@@ -1965,13 +2036,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" t="s">
         <v>84</v>
       </c>
-      <c r="B39" t="s">
-        <v>80</v>
-      </c>
       <c r="C39" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D39"/>
       <c r="E39"/>
@@ -1991,13 +2062,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D40"/>
       <c r="E40"/>
@@ -2017,13 +2088,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D41"/>
       <c r="E41"/>
@@ -2043,13 +2114,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C42" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
@@ -2069,13 +2140,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C43" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
@@ -2095,13 +2166,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C44" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
@@ -2121,13 +2192,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B45" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C45" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
@@ -2147,13 +2218,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B46" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C46" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D46"/>
       <c r="E46"/>
@@ -2173,13 +2244,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B47" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C47" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D47"/>
       <c r="E47"/>
@@ -2199,13 +2270,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B48" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C48" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D48"/>
       <c r="E48"/>
@@ -2225,13 +2296,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B49" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C49" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D49"/>
       <c r="E49"/>
@@ -2251,13 +2322,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B50" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C50" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D50"/>
       <c r="E50"/>
@@ -2277,13 +2348,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B51" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C51" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D51"/>
       <c r="E51"/>
@@ -2303,13 +2374,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B52" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C52" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D52"/>
       <c r="E52"/>
@@ -2329,13 +2400,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B53" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C53" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D53"/>
       <c r="E53"/>
@@ -2355,13 +2426,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B54" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C54" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D54"/>
       <c r="E54"/>
@@ -2381,13 +2452,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B55" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C55" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D55"/>
       <c r="E55"/>
@@ -2407,13 +2478,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B56" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C56" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D56"/>
       <c r="E56"/>
@@ -2433,13 +2504,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B57" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C57" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D57"/>
       <c r="E57"/>
@@ -2459,13 +2530,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B58" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C58" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D58"/>
       <c r="E58"/>
@@ -2485,22 +2556,22 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C59" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D59"/>
       <c r="E59"/>
       <c r="F59"/>
       <c r="G59" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H59" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I59" t="b">
         <v>1</v>
@@ -2517,13 +2588,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B60" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C60" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D60"/>
       <c r="E60"/>
@@ -2543,13 +2614,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B61" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C61" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D61"/>
       <c r="E61"/>
@@ -2569,13 +2640,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B62" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C62" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D62"/>
       <c r="E62"/>
@@ -2595,13 +2666,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B63" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C63" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D63"/>
       <c r="E63"/>
@@ -2621,13 +2692,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>113</v>
+      </c>
+      <c r="B64" t="s">
         <v>109</v>
       </c>
-      <c r="B64" t="s">
-        <v>105</v>
-      </c>
       <c r="C64" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D64"/>
       <c r="E64"/>
@@ -2647,13 +2718,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B65" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C65" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D65"/>
       <c r="E65"/>
@@ -2673,13 +2744,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B66" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C66" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D66"/>
       <c r="E66"/>
@@ -2699,22 +2770,22 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B67" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C67" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D67"/>
       <c r="E67"/>
       <c r="F67"/>
       <c r="G67" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H67" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I67" t="b">
         <v>1</v>
@@ -2731,13 +2802,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C68" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D68"/>
       <c r="E68"/>
@@ -2757,13 +2828,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C69" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D69"/>
       <c r="E69"/>
@@ -2783,13 +2854,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B70" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C70" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D70"/>
       <c r="E70"/>
@@ -2809,13 +2880,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B71" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C71" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D71"/>
       <c r="E71"/>
@@ -2835,13 +2906,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C72" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D72"/>
       <c r="E72"/>
@@ -2861,13 +2932,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C73" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D73"/>
       <c r="E73"/>
@@ -2887,13 +2958,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B74" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C74" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D74"/>
       <c r="E74"/>
@@ -2913,13 +2984,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B75" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C75" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D75"/>
       <c r="E75"/>
@@ -2939,13 +3010,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B76" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C76" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D76"/>
       <c r="E76"/>
@@ -2965,13 +3036,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
+        <v>120</v>
+      </c>
+      <c r="B77" t="s">
         <v>116</v>
       </c>
-      <c r="B77" t="s">
-        <v>112</v>
-      </c>
       <c r="C77" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D77"/>
       <c r="E77"/>
@@ -2991,13 +3062,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B78" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C78" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D78"/>
       <c r="E78"/>
@@ -3017,13 +3088,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B79" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C79" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D79"/>
       <c r="E79"/>
@@ -3043,13 +3114,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B80" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C80" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D80"/>
       <c r="E80"/>
@@ -3069,13 +3140,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B81" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C81" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D81"/>
       <c r="E81"/>
@@ -3095,22 +3166,22 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B82" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C82" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D82"/>
       <c r="E82"/>
       <c r="F82"/>
       <c r="G82" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H82" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I82" t="b">
         <v>1</v>
@@ -3127,13 +3198,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B83" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C83" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D83"/>
       <c r="E83"/>
@@ -3153,13 +3224,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B84" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C84" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D84"/>
       <c r="E84"/>
@@ -3179,13 +3250,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B85" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C85" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D85"/>
       <c r="E85"/>
@@ -3205,13 +3276,13 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B86" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C86" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D86"/>
       <c r="E86"/>
@@ -3231,13 +3302,13 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B87" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C87" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D87"/>
       <c r="E87"/>
@@ -3257,13 +3328,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B88" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C88" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D88"/>
       <c r="E88"/>
@@ -3283,13 +3354,13 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B89" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C89" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D89"/>
       <c r="E89"/>
@@ -3309,13 +3380,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
+        <v>129</v>
+      </c>
+      <c r="B90" t="s">
         <v>125</v>
       </c>
-      <c r="B90" t="s">
-        <v>121</v>
-      </c>
       <c r="C90" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D90"/>
       <c r="E90"/>
@@ -3335,13 +3406,13 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B91" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C91" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D91"/>
       <c r="E91"/>
@@ -3361,13 +3432,13 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B92" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C92" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D92"/>
       <c r="E92"/>
@@ -3387,13 +3458,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B93" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C93" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D93"/>
       <c r="E93"/>
@@ -3413,13 +3484,13 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B94" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C94" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D94"/>
       <c r="E94"/>
@@ -3439,13 +3510,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B95" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C95" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D95"/>
       <c r="E95"/>
@@ -3465,22 +3536,22 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B96" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C96" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D96"/>
       <c r="E96"/>
       <c r="F96"/>
       <c r="G96" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H96" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I96" t="b">
         <v>1</v>
@@ -3492,6 +3563,232 @@
         <v>0</v>
       </c>
       <c r="L96" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>132</v>
+      </c>
+      <c r="B97" t="s">
+        <v>133</v>
+      </c>
+      <c r="C97" t="s">
+        <v>51</v>
+      </c>
+      <c r="D97"/>
+      <c r="E97"/>
+      <c r="F97"/>
+      <c r="G97" t="s">
+        <v>134</v>
+      </c>
+      <c r="H97" t="s">
+        <v>135</v>
+      </c>
+      <c r="I97" t="b">
+        <v>0</v>
+      </c>
+      <c r="J97"/>
+      <c r="K97" t="b">
+        <v>1</v>
+      </c>
+      <c r="L97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>136</v>
+      </c>
+      <c r="B98" t="s">
+        <v>133</v>
+      </c>
+      <c r="C98" t="s">
+        <v>51</v>
+      </c>
+      <c r="D98"/>
+      <c r="E98"/>
+      <c r="F98"/>
+      <c r="G98" t="s">
+        <v>137</v>
+      </c>
+      <c r="H98" t="s">
+        <v>138</v>
+      </c>
+      <c r="I98" t="b">
+        <v>0</v>
+      </c>
+      <c r="J98"/>
+      <c r="K98" t="b">
+        <v>1</v>
+      </c>
+      <c r="L98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>139</v>
+      </c>
+      <c r="B99" t="s">
+        <v>133</v>
+      </c>
+      <c r="C99" t="s">
+        <v>51</v>
+      </c>
+      <c r="D99"/>
+      <c r="E99"/>
+      <c r="F99"/>
+      <c r="G99"/>
+      <c r="H99"/>
+      <c r="I99" t="b">
+        <v>0</v>
+      </c>
+      <c r="J99"/>
+      <c r="K99" t="b">
+        <v>1</v>
+      </c>
+      <c r="L99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>140</v>
+      </c>
+      <c r="B100" t="s">
+        <v>133</v>
+      </c>
+      <c r="C100" t="s">
+        <v>51</v>
+      </c>
+      <c r="D100"/>
+      <c r="E100"/>
+      <c r="F100"/>
+      <c r="G100"/>
+      <c r="H100"/>
+      <c r="I100" t="b">
+        <v>0</v>
+      </c>
+      <c r="J100"/>
+      <c r="K100" t="b">
+        <v>1</v>
+      </c>
+      <c r="L100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>141</v>
+      </c>
+      <c r="B101" t="s">
+        <v>133</v>
+      </c>
+      <c r="C101" t="s">
+        <v>57</v>
+      </c>
+      <c r="D101"/>
+      <c r="E101"/>
+      <c r="F101"/>
+      <c r="G101"/>
+      <c r="H101"/>
+      <c r="I101" t="b">
+        <v>0</v>
+      </c>
+      <c r="J101"/>
+      <c r="K101" t="b">
+        <v>1</v>
+      </c>
+      <c r="L101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>142</v>
+      </c>
+      <c r="B102" t="s">
+        <v>133</v>
+      </c>
+      <c r="C102" t="s">
+        <v>57</v>
+      </c>
+      <c r="D102"/>
+      <c r="E102"/>
+      <c r="F102"/>
+      <c r="G102" t="s">
+        <v>143</v>
+      </c>
+      <c r="H102" t="s">
+        <v>143</v>
+      </c>
+      <c r="I102" t="b">
+        <v>0</v>
+      </c>
+      <c r="J102"/>
+      <c r="K102" t="b">
+        <v>1</v>
+      </c>
+      <c r="L102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>144</v>
+      </c>
+      <c r="B103" t="s">
+        <v>133</v>
+      </c>
+      <c r="C103" t="s">
+        <v>51</v>
+      </c>
+      <c r="D103"/>
+      <c r="E103"/>
+      <c r="F103"/>
+      <c r="G103"/>
+      <c r="H103"/>
+      <c r="I103" t="b">
+        <v>0</v>
+      </c>
+      <c r="J103"/>
+      <c r="K103" t="b">
+        <v>1</v>
+      </c>
+      <c r="L103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>62</v>
+      </c>
+      <c r="B104" t="s">
+        <v>133</v>
+      </c>
+      <c r="C104" t="s">
+        <v>51</v>
+      </c>
+      <c r="D104"/>
+      <c r="E104"/>
+      <c r="F104"/>
+      <c r="G104" t="s">
+        <v>63</v>
+      </c>
+      <c r="H104" t="s">
+        <v>64</v>
+      </c>
+      <c r="I104" t="b">
+        <v>1</v>
+      </c>
+      <c r="J104" t="b">
+        <v>1</v>
+      </c>
+      <c r="K104" t="b">
+        <v>0</v>
+      </c>
+      <c r="L104" t="b">
         <v>1</v>
       </c>
     </row>

--- a/emx/cosas-portal/cosasportal.xlsx
+++ b/emx/cosas-portal/cosasportal.xlsx
@@ -31,7 +31,7 @@
     <t xml:space="preserve">COSAS Portal</t>
   </si>
   <si>
-    <t xml:space="preserve">Staging tables for raw data extracts (v0.9003, 2021-07-13)</t>
+    <t xml:space="preserve">Staging tables for raw data extracts (v0.9004, 2021-07-15)</t>
   </si>
   <si>
     <t xml:space="preserve">label-nl</t>
@@ -1504,42 +1504,42 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
         <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19" t="s">
-        <v>63</v>
-      </c>
-      <c r="H19" t="s">
-        <v>64</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="D19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19"/>
+      <c r="H19"/>
       <c r="I19" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J19"/>
       <c r="K19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s">
         <v>51</v>
@@ -1547,22 +1547,28 @@
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
+      <c r="G20" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" t="s">
+        <v>64</v>
+      </c>
       <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20"/>
+        <v>1</v>
+      </c>
+      <c r="J20" t="b">
+        <v>1</v>
+      </c>
       <c r="K20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B21" t="s">
         <v>74</v>
@@ -1588,7 +1594,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B22" t="s">
         <v>74</v>
@@ -1614,7 +1620,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B23" t="s">
         <v>74</v>
@@ -1640,7 +1646,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B24" t="s">
         <v>74</v>
@@ -1666,7 +1672,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B25" t="s">
         <v>74</v>
@@ -1692,7 +1698,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B26" t="s">
         <v>74</v>
@@ -1718,13 +1724,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B27" t="s">
         <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -1744,13 +1750,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B28" t="s">
         <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -1770,7 +1776,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B29" t="s">
         <v>74</v>
@@ -1796,7 +1802,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="B30" t="s">
         <v>74</v>
@@ -1807,38 +1813,38 @@
       <c r="D30"/>
       <c r="E30"/>
       <c r="F30"/>
-      <c r="G30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H30" t="s">
-        <v>64</v>
-      </c>
+      <c r="G30"/>
+      <c r="H30"/>
       <c r="I30" t="b">
-        <v>1</v>
-      </c>
-      <c r="J30" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30"/>
       <c r="K30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C31" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
+        <v>61</v>
+      </c>
+      <c r="D31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31" t="b">
@@ -1854,10 +1860,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C32" t="s">
         <v>51</v>
@@ -1865,22 +1871,28 @@
       <c r="D32"/>
       <c r="E32"/>
       <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32"/>
+      <c r="G32" t="s">
+        <v>63</v>
+      </c>
+      <c r="H32" t="s">
+        <v>64</v>
+      </c>
       <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32"/>
+        <v>1</v>
+      </c>
+      <c r="J32" t="b">
+        <v>1</v>
+      </c>
       <c r="K32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s">
         <v>84</v>
@@ -1906,7 +1918,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B34" t="s">
         <v>84</v>
@@ -1932,7 +1944,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B35" t="s">
         <v>84</v>
@@ -1958,7 +1970,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B36" t="s">
         <v>84</v>
@@ -1984,7 +1996,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B37" t="s">
         <v>84</v>
@@ -2010,7 +2022,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B38" t="s">
         <v>84</v>
@@ -2036,7 +2048,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B39" t="s">
         <v>84</v>
@@ -2062,13 +2074,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B40" t="s">
         <v>84</v>
       </c>
       <c r="C40" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D40"/>
       <c r="E40"/>
@@ -2088,7 +2100,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B41" t="s">
         <v>84</v>
@@ -2114,13 +2126,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B42" t="s">
         <v>84</v>
       </c>
       <c r="C42" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
@@ -2140,7 +2152,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B43" t="s">
         <v>84</v>
@@ -2166,7 +2178,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B44" t="s">
         <v>84</v>
@@ -2192,7 +2204,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B45" t="s">
         <v>84</v>
@@ -2218,7 +2230,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B46" t="s">
         <v>84</v>
@@ -2244,7 +2256,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B47" t="s">
         <v>84</v>
@@ -2270,7 +2282,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B48" t="s">
         <v>84</v>
@@ -2296,7 +2308,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B49" t="s">
         <v>84</v>
@@ -2322,13 +2334,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B50" t="s">
         <v>84</v>
       </c>
       <c r="C50" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D50"/>
       <c r="E50"/>
@@ -2348,13 +2360,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B51" t="s">
         <v>84</v>
       </c>
       <c r="C51" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D51"/>
       <c r="E51"/>
@@ -2374,13 +2386,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B52" t="s">
         <v>84</v>
       </c>
       <c r="C52" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D52"/>
       <c r="E52"/>
@@ -2400,13 +2412,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B53" t="s">
         <v>84</v>
       </c>
       <c r="C53" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D53"/>
       <c r="E53"/>
@@ -2426,7 +2438,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B54" t="s">
         <v>84</v>
@@ -2452,13 +2464,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B55" t="s">
         <v>84</v>
       </c>
       <c r="C55" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D55"/>
       <c r="E55"/>
@@ -2478,7 +2490,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B56" t="s">
         <v>84</v>
@@ -2504,13 +2516,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B57" t="s">
         <v>84</v>
       </c>
       <c r="C57" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D57"/>
       <c r="E57"/>
@@ -2530,7 +2542,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B58" t="s">
         <v>84</v>
@@ -2556,7 +2568,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="B59" t="s">
         <v>84</v>
@@ -2567,31 +2579,25 @@
       <c r="D59"/>
       <c r="E59"/>
       <c r="F59"/>
-      <c r="G59" t="s">
-        <v>63</v>
-      </c>
-      <c r="H59" t="s">
-        <v>64</v>
-      </c>
+      <c r="G59"/>
+      <c r="H59"/>
       <c r="I59" t="b">
-        <v>1</v>
-      </c>
-      <c r="J59" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59"/>
       <c r="K59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B60" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="C60" t="s">
         <v>51</v>
@@ -2614,17 +2620,23 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="C61" t="s">
-        <v>51</v>
-      </c>
-      <c r="D61"/>
-      <c r="E61"/>
-      <c r="F61"/>
+        <v>61</v>
+      </c>
+      <c r="D61" t="s">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>60</v>
+      </c>
+      <c r="F61" t="b">
+        <v>0</v>
+      </c>
       <c r="G61"/>
       <c r="H61"/>
       <c r="I61" t="b">
@@ -2640,10 +2652,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="C62" t="s">
         <v>51</v>
@@ -2651,22 +2663,28 @@
       <c r="D62"/>
       <c r="E62"/>
       <c r="F62"/>
-      <c r="G62"/>
-      <c r="H62"/>
+      <c r="G62" t="s">
+        <v>63</v>
+      </c>
+      <c r="H62" t="s">
+        <v>64</v>
+      </c>
       <c r="I62" t="b">
-        <v>0</v>
-      </c>
-      <c r="J62"/>
+        <v>1</v>
+      </c>
+      <c r="J62" t="b">
+        <v>1</v>
+      </c>
       <c r="K62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B63" t="s">
         <v>109</v>
@@ -2692,7 +2710,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B64" t="s">
         <v>109</v>
@@ -2718,7 +2736,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B65" t="s">
         <v>109</v>
@@ -2744,7 +2762,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B66" t="s">
         <v>109</v>
@@ -2770,7 +2788,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="B67" t="s">
         <v>109</v>
@@ -2781,31 +2799,25 @@
       <c r="D67"/>
       <c r="E67"/>
       <c r="F67"/>
-      <c r="G67" t="s">
-        <v>63</v>
-      </c>
-      <c r="H67" t="s">
-        <v>64</v>
-      </c>
+      <c r="G67"/>
+      <c r="H67"/>
       <c r="I67" t="b">
-        <v>1</v>
-      </c>
-      <c r="J67" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67"/>
       <c r="K67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="B68" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C68" t="s">
         <v>51</v>
@@ -2828,10 +2840,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="B69" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C69" t="s">
         <v>51</v>
@@ -2854,17 +2866,23 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="B70" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C70" t="s">
-        <v>51</v>
-      </c>
-      <c r="D70"/>
-      <c r="E70"/>
-      <c r="F70"/>
+        <v>61</v>
+      </c>
+      <c r="D70" t="s">
+        <v>60</v>
+      </c>
+      <c r="E70" t="s">
+        <v>60</v>
+      </c>
+      <c r="F70" t="b">
+        <v>0</v>
+      </c>
       <c r="G70"/>
       <c r="H70"/>
       <c r="I70" t="b">
@@ -2880,10 +2898,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="B71" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C71" t="s">
         <v>51</v>
@@ -2891,22 +2909,28 @@
       <c r="D71"/>
       <c r="E71"/>
       <c r="F71"/>
-      <c r="G71"/>
-      <c r="H71"/>
+      <c r="G71" t="s">
+        <v>63</v>
+      </c>
+      <c r="H71" t="s">
+        <v>64</v>
+      </c>
       <c r="I71" t="b">
-        <v>0</v>
-      </c>
-      <c r="J71"/>
+        <v>1</v>
+      </c>
+      <c r="J71" t="b">
+        <v>1</v>
+      </c>
       <c r="K71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B72" t="s">
         <v>116</v>
@@ -2932,7 +2956,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B73" t="s">
         <v>116</v>
@@ -2958,7 +2982,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="B74" t="s">
         <v>116</v>
@@ -2984,7 +3008,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="B75" t="s">
         <v>116</v>
@@ -3010,7 +3034,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B76" t="s">
         <v>116</v>
@@ -3036,7 +3060,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="B77" t="s">
         <v>116</v>
@@ -3062,7 +3086,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B78" t="s">
         <v>116</v>
@@ -3088,7 +3112,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B79" t="s">
         <v>116</v>
@@ -3114,7 +3138,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B80" t="s">
         <v>116</v>
@@ -3140,7 +3164,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B81" t="s">
         <v>116</v>
@@ -3166,7 +3190,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="B82" t="s">
         <v>116</v>
@@ -3177,31 +3201,25 @@
       <c r="D82"/>
       <c r="E82"/>
       <c r="F82"/>
-      <c r="G82" t="s">
-        <v>63</v>
-      </c>
-      <c r="H82" t="s">
-        <v>64</v>
-      </c>
+      <c r="G82"/>
+      <c r="H82"/>
       <c r="I82" t="b">
-        <v>1</v>
-      </c>
-      <c r="J82" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82"/>
       <c r="K82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="B83" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C83" t="s">
         <v>51</v>
@@ -3224,10 +3242,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="B84" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C84" t="s">
         <v>51</v>
@@ -3250,10 +3268,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="B85" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C85" t="s">
         <v>51</v>
@@ -3276,17 +3294,23 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="B86" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C86" t="s">
-        <v>51</v>
-      </c>
-      <c r="D86"/>
-      <c r="E86"/>
-      <c r="F86"/>
+        <v>61</v>
+      </c>
+      <c r="D86" t="s">
+        <v>60</v>
+      </c>
+      <c r="E86" t="s">
+        <v>60</v>
+      </c>
+      <c r="F86" t="b">
+        <v>0</v>
+      </c>
       <c r="G86"/>
       <c r="H86"/>
       <c r="I86" t="b">
@@ -3302,10 +3326,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="B87" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C87" t="s">
         <v>51</v>
@@ -3313,22 +3337,28 @@
       <c r="D87"/>
       <c r="E87"/>
       <c r="F87"/>
-      <c r="G87"/>
-      <c r="H87"/>
+      <c r="G87" t="s">
+        <v>63</v>
+      </c>
+      <c r="H87" t="s">
+        <v>64</v>
+      </c>
       <c r="I87" t="b">
-        <v>0</v>
-      </c>
-      <c r="J87"/>
+        <v>1</v>
+      </c>
+      <c r="J87" t="b">
+        <v>1</v>
+      </c>
       <c r="K87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="B88" t="s">
         <v>125</v>
@@ -3354,7 +3384,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="B89" t="s">
         <v>125</v>
@@ -3380,7 +3410,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="B90" t="s">
         <v>125</v>
@@ -3406,7 +3436,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="B91" t="s">
         <v>125</v>
@@ -3432,7 +3462,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="B92" t="s">
         <v>125</v>
@@ -3458,7 +3488,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B93" t="s">
         <v>125</v>
@@ -3484,7 +3514,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="B94" t="s">
         <v>125</v>
@@ -3510,7 +3540,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B95" t="s">
         <v>125</v>
@@ -3536,7 +3566,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="B96" t="s">
         <v>125</v>
@@ -3547,31 +3577,25 @@
       <c r="D96"/>
       <c r="E96"/>
       <c r="F96"/>
-      <c r="G96" t="s">
-        <v>63</v>
-      </c>
-      <c r="H96" t="s">
-        <v>64</v>
-      </c>
+      <c r="G96"/>
+      <c r="H96"/>
       <c r="I96" t="b">
-        <v>1</v>
-      </c>
-      <c r="J96" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96"/>
       <c r="K96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="B97" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C97" t="s">
         <v>51</v>
@@ -3579,12 +3603,8 @@
       <c r="D97"/>
       <c r="E97"/>
       <c r="F97"/>
-      <c r="G97" t="s">
-        <v>134</v>
-      </c>
-      <c r="H97" t="s">
-        <v>135</v>
-      </c>
+      <c r="G97"/>
+      <c r="H97"/>
       <c r="I97" t="b">
         <v>0</v>
       </c>
@@ -3598,10 +3618,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B98" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C98" t="s">
         <v>51</v>
@@ -3609,12 +3629,8 @@
       <c r="D98"/>
       <c r="E98"/>
       <c r="F98"/>
-      <c r="G98" t="s">
-        <v>137</v>
-      </c>
-      <c r="H98" t="s">
-        <v>138</v>
-      </c>
+      <c r="G98"/>
+      <c r="H98"/>
       <c r="I98" t="b">
         <v>0</v>
       </c>
@@ -3628,10 +3644,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="B99" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C99" t="s">
         <v>51</v>
@@ -3654,10 +3670,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="B100" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C100" t="s">
         <v>51</v>
@@ -3680,17 +3696,23 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>141</v>
+        <v>60</v>
       </c>
       <c r="B101" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C101" t="s">
-        <v>57</v>
-      </c>
-      <c r="D101"/>
-      <c r="E101"/>
-      <c r="F101"/>
+        <v>61</v>
+      </c>
+      <c r="D101" t="s">
+        <v>60</v>
+      </c>
+      <c r="E101" t="s">
+        <v>60</v>
+      </c>
+      <c r="F101" t="b">
+        <v>0</v>
+      </c>
       <c r="G101"/>
       <c r="H101"/>
       <c r="I101" t="b">
@@ -3706,37 +3728,39 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>142</v>
+        <v>62</v>
       </c>
       <c r="B102" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C102" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D102"/>
       <c r="E102"/>
       <c r="F102"/>
       <c r="G102" t="s">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="H102" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="I102" t="b">
-        <v>0</v>
-      </c>
-      <c r="J102"/>
+        <v>1</v>
+      </c>
+      <c r="J102" t="b">
+        <v>1</v>
+      </c>
       <c r="K102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B103" t="s">
         <v>133</v>
@@ -3747,8 +3771,12 @@
       <c r="D103"/>
       <c r="E103"/>
       <c r="F103"/>
-      <c r="G103"/>
-      <c r="H103"/>
+      <c r="G103" t="s">
+        <v>134</v>
+      </c>
+      <c r="H103" t="s">
+        <v>135</v>
+      </c>
       <c r="I103" t="b">
         <v>0</v>
       </c>
@@ -3762,7 +3790,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>62</v>
+        <v>136</v>
       </c>
       <c r="B104" t="s">
         <v>133</v>
@@ -3774,21 +3802,217 @@
       <c r="E104"/>
       <c r="F104"/>
       <c r="G104" t="s">
+        <v>137</v>
+      </c>
+      <c r="H104" t="s">
+        <v>138</v>
+      </c>
+      <c r="I104" t="b">
+        <v>0</v>
+      </c>
+      <c r="J104"/>
+      <c r="K104" t="b">
+        <v>1</v>
+      </c>
+      <c r="L104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>139</v>
+      </c>
+      <c r="B105" t="s">
+        <v>133</v>
+      </c>
+      <c r="C105" t="s">
+        <v>51</v>
+      </c>
+      <c r="D105"/>
+      <c r="E105"/>
+      <c r="F105"/>
+      <c r="G105"/>
+      <c r="H105"/>
+      <c r="I105" t="b">
+        <v>0</v>
+      </c>
+      <c r="J105"/>
+      <c r="K105" t="b">
+        <v>1</v>
+      </c>
+      <c r="L105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>140</v>
+      </c>
+      <c r="B106" t="s">
+        <v>133</v>
+      </c>
+      <c r="C106" t="s">
+        <v>51</v>
+      </c>
+      <c r="D106"/>
+      <c r="E106"/>
+      <c r="F106"/>
+      <c r="G106"/>
+      <c r="H106"/>
+      <c r="I106" t="b">
+        <v>0</v>
+      </c>
+      <c r="J106"/>
+      <c r="K106" t="b">
+        <v>1</v>
+      </c>
+      <c r="L106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>141</v>
+      </c>
+      <c r="B107" t="s">
+        <v>133</v>
+      </c>
+      <c r="C107" t="s">
+        <v>57</v>
+      </c>
+      <c r="D107"/>
+      <c r="E107"/>
+      <c r="F107"/>
+      <c r="G107"/>
+      <c r="H107"/>
+      <c r="I107" t="b">
+        <v>0</v>
+      </c>
+      <c r="J107"/>
+      <c r="K107" t="b">
+        <v>1</v>
+      </c>
+      <c r="L107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>142</v>
+      </c>
+      <c r="B108" t="s">
+        <v>133</v>
+      </c>
+      <c r="C108" t="s">
+        <v>57</v>
+      </c>
+      <c r="D108"/>
+      <c r="E108"/>
+      <c r="F108"/>
+      <c r="G108" t="s">
+        <v>143</v>
+      </c>
+      <c r="H108" t="s">
+        <v>143</v>
+      </c>
+      <c r="I108" t="b">
+        <v>0</v>
+      </c>
+      <c r="J108"/>
+      <c r="K108" t="b">
+        <v>1</v>
+      </c>
+      <c r="L108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>144</v>
+      </c>
+      <c r="B109" t="s">
+        <v>133</v>
+      </c>
+      <c r="C109" t="s">
+        <v>51</v>
+      </c>
+      <c r="D109"/>
+      <c r="E109"/>
+      <c r="F109"/>
+      <c r="G109"/>
+      <c r="H109"/>
+      <c r="I109" t="b">
+        <v>0</v>
+      </c>
+      <c r="J109"/>
+      <c r="K109" t="b">
+        <v>1</v>
+      </c>
+      <c r="L109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>60</v>
+      </c>
+      <c r="B110" t="s">
+        <v>133</v>
+      </c>
+      <c r="C110" t="s">
+        <v>61</v>
+      </c>
+      <c r="D110" t="s">
+        <v>60</v>
+      </c>
+      <c r="E110" t="s">
+        <v>60</v>
+      </c>
+      <c r="F110" t="b">
+        <v>0</v>
+      </c>
+      <c r="G110"/>
+      <c r="H110"/>
+      <c r="I110" t="b">
+        <v>0</v>
+      </c>
+      <c r="J110"/>
+      <c r="K110" t="b">
+        <v>1</v>
+      </c>
+      <c r="L110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>62</v>
+      </c>
+      <c r="B111" t="s">
+        <v>133</v>
+      </c>
+      <c r="C111" t="s">
+        <v>51</v>
+      </c>
+      <c r="D111"/>
+      <c r="E111"/>
+      <c r="F111"/>
+      <c r="G111" t="s">
         <v>63</v>
       </c>
-      <c r="H104" t="s">
+      <c r="H111" t="s">
         <v>64</v>
       </c>
-      <c r="I104" t="b">
-        <v>1</v>
-      </c>
-      <c r="J104" t="b">
-        <v>1</v>
-      </c>
-      <c r="K104" t="b">
-        <v>0</v>
-      </c>
-      <c r="L104" t="b">
+      <c r="I111" t="b">
+        <v>1</v>
+      </c>
+      <c r="J111" t="b">
+        <v>1</v>
+      </c>
+      <c r="K111" t="b">
+        <v>0</v>
+      </c>
+      <c r="L111" t="b">
         <v>1</v>
       </c>
     </row>

--- a/emx/cosas-portal/cosasportal.xlsx
+++ b/emx/cosas-portal/cosasportal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -31,7 +31,7 @@
     <t xml:space="preserve">COSAS Portal</t>
   </si>
   <si>
-    <t xml:space="preserve">Staging tables for raw data extracts (v0.9004, 2021-07-15)</t>
+    <t xml:space="preserve">Staging tables for raw data extracts (v0.9005, 2021-07-21)</t>
   </si>
   <si>
     <t xml:space="preserve">label-nl</t>
@@ -200,6 +200,15 @@
   </si>
   <si>
     <t xml:space="preserve">bool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date_processed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date Processed</t>
   </si>
   <si>
     <t xml:space="preserve">id</t>
@@ -1296,28 +1305,26 @@
         <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11"/>
-      <c r="E11"/>
+        <v>63</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" t="s">
+        <v>64</v>
+      </c>
       <c r="F11"/>
-      <c r="G11" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" t="s">
-        <v>64</v>
-      </c>
+      <c r="G11"/>
+      <c r="H11"/>
       <c r="I11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11"/>
       <c r="K11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1325,7 +1332,7 @@
         <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
         <v>51</v>
@@ -1333,25 +1340,31 @@
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
+      <c r="G12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" t="s">
+        <v>67</v>
+      </c>
       <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12"/>
+        <v>1</v>
+      </c>
+      <c r="J12" t="b">
+        <v>1</v>
+      </c>
       <c r="K12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
         <v>51</v>
@@ -1374,10 +1387,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
         <v>51</v>
@@ -1400,10 +1413,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
         <v>69</v>
-      </c>
-      <c r="B15" t="s">
-        <v>66</v>
       </c>
       <c r="C15" t="s">
         <v>51</v>
@@ -1426,10 +1439,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
         <v>51</v>
@@ -1452,10 +1465,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
         <v>51</v>
@@ -1478,10 +1491,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
         <v>51</v>
@@ -1504,23 +1517,17 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" t="s">
-        <v>60</v>
-      </c>
-      <c r="F19" t="b">
-        <v>0</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19" t="b">
@@ -1536,48 +1543,52 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20" t="s">
-        <v>63</v>
-      </c>
-      <c r="H20" t="s">
-        <v>64</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="D20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20"/>
+      <c r="H20"/>
       <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J20"/>
       <c r="K20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21"/>
-      <c r="E21"/>
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" t="s">
+        <v>64</v>
+      </c>
       <c r="F21"/>
       <c r="G21"/>
       <c r="H21"/>
@@ -1594,10 +1605,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
         <v>51</v>
@@ -1605,17 +1616,23 @@
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
+      <c r="G22" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" t="s">
+        <v>67</v>
+      </c>
       <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22"/>
+        <v>1</v>
+      </c>
+      <c r="J22" t="b">
+        <v>1</v>
+      </c>
       <c r="K22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1623,7 +1640,7 @@
         <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C23" t="s">
         <v>51</v>
@@ -1646,10 +1663,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" t="s">
         <v>77</v>
-      </c>
-      <c r="B24" t="s">
-        <v>74</v>
       </c>
       <c r="C24" t="s">
         <v>51</v>
@@ -1672,10 +1689,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C25" t="s">
         <v>51</v>
@@ -1698,10 +1715,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
         <v>51</v>
@@ -1724,10 +1741,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
         <v>51</v>
@@ -1750,13 +1767,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -1776,10 +1793,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C29" t="s">
         <v>51</v>
@@ -1802,13 +1819,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D30"/>
       <c r="E30"/>
@@ -1828,23 +1845,17 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" t="s">
-        <v>60</v>
-      </c>
-      <c r="E31" t="s">
-        <v>60</v>
-      </c>
-      <c r="F31" t="b">
-        <v>0</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31" t="b">
@@ -1860,10 +1871,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C32" t="s">
         <v>51</v>
@@ -1871,38 +1882,38 @@
       <c r="D32"/>
       <c r="E32"/>
       <c r="F32"/>
-      <c r="G32" t="s">
-        <v>63</v>
-      </c>
-      <c r="H32" t="s">
-        <v>64</v>
-      </c>
+      <c r="G32"/>
+      <c r="H32"/>
       <c r="I32" t="b">
-        <v>1</v>
-      </c>
-      <c r="J32" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32"/>
       <c r="K32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C33" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
+        <v>61</v>
+      </c>
+      <c r="D33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33" t="b">
@@ -1918,16 +1929,20 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34"/>
-      <c r="E34"/>
+        <v>63</v>
+      </c>
+      <c r="D34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" t="s">
+        <v>64</v>
+      </c>
       <c r="F34"/>
       <c r="G34"/>
       <c r="H34"/>
@@ -1944,10 +1959,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
         <v>51</v>
@@ -1955,25 +1970,31 @@
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35"/>
+      <c r="G35" t="s">
+        <v>66</v>
+      </c>
+      <c r="H35" t="s">
+        <v>67</v>
+      </c>
       <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35"/>
+        <v>1</v>
+      </c>
+      <c r="J35" t="b">
+        <v>1</v>
+      </c>
       <c r="K35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C36" t="s">
         <v>51</v>
@@ -1996,10 +2017,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C37" t="s">
         <v>51</v>
@@ -2022,10 +2043,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B38" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C38" t="s">
         <v>51</v>
@@ -2048,10 +2069,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C39" t="s">
         <v>51</v>
@@ -2074,10 +2095,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" t="s">
         <v>87</v>
-      </c>
-      <c r="B40" t="s">
-        <v>84</v>
       </c>
       <c r="C40" t="s">
         <v>51</v>
@@ -2100,10 +2121,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C41" t="s">
         <v>51</v>
@@ -2129,10 +2150,10 @@
         <v>89</v>
       </c>
       <c r="B42" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C42" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
@@ -2155,7 +2176,7 @@
         <v>90</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C43" t="s">
         <v>51</v>
@@ -2181,7 +2202,7 @@
         <v>91</v>
       </c>
       <c r="B44" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2207,10 +2228,10 @@
         <v>92</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C45" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
@@ -2233,7 +2254,7 @@
         <v>93</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C46" t="s">
         <v>51</v>
@@ -2259,7 +2280,7 @@
         <v>94</v>
       </c>
       <c r="B47" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C47" t="s">
         <v>51</v>
@@ -2285,7 +2306,7 @@
         <v>95</v>
       </c>
       <c r="B48" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C48" t="s">
         <v>51</v>
@@ -2311,7 +2332,7 @@
         <v>96</v>
       </c>
       <c r="B49" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C49" t="s">
         <v>51</v>
@@ -2337,7 +2358,7 @@
         <v>97</v>
       </c>
       <c r="B50" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C50" t="s">
         <v>51</v>
@@ -2363,7 +2384,7 @@
         <v>98</v>
       </c>
       <c r="B51" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C51" t="s">
         <v>51</v>
@@ -2389,10 +2410,10 @@
         <v>99</v>
       </c>
       <c r="B52" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C52" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D52"/>
       <c r="E52"/>
@@ -2415,10 +2436,10 @@
         <v>100</v>
       </c>
       <c r="B53" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C53" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D53"/>
       <c r="E53"/>
@@ -2441,7 +2462,7 @@
         <v>101</v>
       </c>
       <c r="B54" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C54" t="s">
         <v>51</v>
@@ -2467,10 +2488,10 @@
         <v>102</v>
       </c>
       <c r="B55" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C55" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D55"/>
       <c r="E55"/>
@@ -2493,10 +2514,10 @@
         <v>103</v>
       </c>
       <c r="B56" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C56" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D56"/>
       <c r="E56"/>
@@ -2519,10 +2540,10 @@
         <v>104</v>
       </c>
       <c r="B57" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C57" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D57"/>
       <c r="E57"/>
@@ -2545,7 +2566,7 @@
         <v>105</v>
       </c>
       <c r="B58" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C58" t="s">
         <v>51</v>
@@ -2571,7 +2592,7 @@
         <v>106</v>
       </c>
       <c r="B59" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C59" t="s">
         <v>51</v>
@@ -2597,10 +2618,10 @@
         <v>107</v>
       </c>
       <c r="B60" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C60" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D60"/>
       <c r="E60"/>
@@ -2620,23 +2641,17 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="B61" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C61" t="s">
-        <v>61</v>
-      </c>
-      <c r="D61" t="s">
-        <v>60</v>
-      </c>
-      <c r="E61" t="s">
-        <v>60</v>
-      </c>
-      <c r="F61" t="b">
-        <v>0</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61"/>
       <c r="G61"/>
       <c r="H61"/>
       <c r="I61" t="b">
@@ -2652,10 +2667,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="B62" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C62" t="s">
         <v>51</v>
@@ -2663,31 +2678,25 @@
       <c r="D62"/>
       <c r="E62"/>
       <c r="F62"/>
-      <c r="G62" t="s">
-        <v>63</v>
-      </c>
-      <c r="H62" t="s">
-        <v>64</v>
-      </c>
+      <c r="G62"/>
+      <c r="H62"/>
       <c r="I62" t="b">
-        <v>1</v>
-      </c>
-      <c r="J62" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62"/>
       <c r="K62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B63" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="C63" t="s">
         <v>51</v>
@@ -2710,17 +2719,23 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B64" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="C64" t="s">
-        <v>51</v>
-      </c>
-      <c r="D64"/>
-      <c r="E64"/>
-      <c r="F64"/>
+        <v>61</v>
+      </c>
+      <c r="D64" t="s">
+        <v>60</v>
+      </c>
+      <c r="E64" t="s">
+        <v>60</v>
+      </c>
+      <c r="F64" t="b">
+        <v>0</v>
+      </c>
       <c r="G64"/>
       <c r="H64"/>
       <c r="I64" t="b">
@@ -2736,16 +2751,20 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="C65" t="s">
-        <v>51</v>
-      </c>
-      <c r="D65"/>
-      <c r="E65"/>
+        <v>63</v>
+      </c>
+      <c r="D65" t="s">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>64</v>
+      </c>
       <c r="F65"/>
       <c r="G65"/>
       <c r="H65"/>
@@ -2762,10 +2781,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="C66" t="s">
         <v>51</v>
@@ -2773,25 +2792,31 @@
       <c r="D66"/>
       <c r="E66"/>
       <c r="F66"/>
-      <c r="G66"/>
-      <c r="H66"/>
+      <c r="G66" t="s">
+        <v>66</v>
+      </c>
+      <c r="H66" t="s">
+        <v>67</v>
+      </c>
       <c r="I66" t="b">
-        <v>0</v>
-      </c>
-      <c r="J66"/>
+        <v>1</v>
+      </c>
+      <c r="J66" t="b">
+        <v>1</v>
+      </c>
       <c r="K66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B67" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C67" t="s">
         <v>51</v>
@@ -2814,10 +2839,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B68" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C68" t="s">
         <v>51</v>
@@ -2840,10 +2865,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B69" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C69" t="s">
         <v>51</v>
@@ -2866,23 +2891,17 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="B70" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C70" t="s">
-        <v>61</v>
-      </c>
-      <c r="D70" t="s">
-        <v>60</v>
-      </c>
-      <c r="E70" t="s">
-        <v>60</v>
-      </c>
-      <c r="F70" t="b">
-        <v>0</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70"/>
       <c r="G70"/>
       <c r="H70"/>
       <c r="I70" t="b">
@@ -2898,10 +2917,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="B71" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C71" t="s">
         <v>51</v>
@@ -2909,31 +2928,25 @@
       <c r="D71"/>
       <c r="E71"/>
       <c r="F71"/>
-      <c r="G71" t="s">
-        <v>63</v>
-      </c>
-      <c r="H71" t="s">
-        <v>64</v>
-      </c>
+      <c r="G71"/>
+      <c r="H71"/>
       <c r="I71" t="b">
-        <v>1</v>
-      </c>
-      <c r="J71" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71"/>
       <c r="K71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="B72" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C72" t="s">
         <v>51</v>
@@ -2956,10 +2969,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="B73" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C73" t="s">
         <v>51</v>
@@ -2982,17 +2995,23 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="B74" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C74" t="s">
-        <v>51</v>
-      </c>
-      <c r="D74"/>
-      <c r="E74"/>
-      <c r="F74"/>
+        <v>61</v>
+      </c>
+      <c r="D74" t="s">
+        <v>60</v>
+      </c>
+      <c r="E74" t="s">
+        <v>60</v>
+      </c>
+      <c r="F74" t="b">
+        <v>0</v>
+      </c>
       <c r="G74"/>
       <c r="H74"/>
       <c r="I74" t="b">
@@ -3008,16 +3027,20 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="B75" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C75" t="s">
-        <v>51</v>
-      </c>
-      <c r="D75"/>
-      <c r="E75"/>
+        <v>63</v>
+      </c>
+      <c r="D75" t="s">
+        <v>64</v>
+      </c>
+      <c r="E75" t="s">
+        <v>64</v>
+      </c>
       <c r="F75"/>
       <c r="G75"/>
       <c r="H75"/>
@@ -3034,10 +3057,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B76" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C76" t="s">
         <v>51</v>
@@ -3045,25 +3068,31 @@
       <c r="D76"/>
       <c r="E76"/>
       <c r="F76"/>
-      <c r="G76"/>
-      <c r="H76"/>
+      <c r="G76" t="s">
+        <v>66</v>
+      </c>
+      <c r="H76" t="s">
+        <v>67</v>
+      </c>
       <c r="I76" t="b">
-        <v>0</v>
-      </c>
-      <c r="J76"/>
+        <v>1</v>
+      </c>
+      <c r="J76" t="b">
+        <v>1</v>
+      </c>
       <c r="K76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B77" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C77" t="s">
         <v>51</v>
@@ -3086,10 +3115,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C78" t="s">
         <v>51</v>
@@ -3112,10 +3141,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C79" t="s">
         <v>51</v>
@@ -3138,10 +3167,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
+        <v>88</v>
+      </c>
+      <c r="B80" t="s">
         <v>119</v>
-      </c>
-      <c r="B80" t="s">
-        <v>116</v>
       </c>
       <c r="C80" t="s">
         <v>51</v>
@@ -3164,10 +3193,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C81" t="s">
         <v>51</v>
@@ -3190,10 +3219,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C82" t="s">
         <v>51</v>
@@ -3216,10 +3245,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B83" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C83" t="s">
         <v>51</v>
@@ -3242,10 +3271,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B84" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C84" t="s">
         <v>51</v>
@@ -3268,10 +3297,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B85" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C85" t="s">
         <v>51</v>
@@ -3294,23 +3323,17 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="B86" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C86" t="s">
-        <v>61</v>
-      </c>
-      <c r="D86" t="s">
-        <v>60</v>
-      </c>
-      <c r="E86" t="s">
-        <v>60</v>
-      </c>
-      <c r="F86" t="b">
-        <v>0</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
       <c r="G86"/>
       <c r="H86"/>
       <c r="I86" t="b">
@@ -3326,10 +3349,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="B87" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C87" t="s">
         <v>51</v>
@@ -3337,31 +3360,25 @@
       <c r="D87"/>
       <c r="E87"/>
       <c r="F87"/>
-      <c r="G87" t="s">
-        <v>63</v>
-      </c>
-      <c r="H87" t="s">
-        <v>64</v>
-      </c>
+      <c r="G87"/>
+      <c r="H87"/>
       <c r="I87" t="b">
-        <v>1</v>
-      </c>
-      <c r="J87" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87"/>
       <c r="K87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="B88" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C88" t="s">
         <v>51</v>
@@ -3384,10 +3401,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="B89" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C89" t="s">
         <v>51</v>
@@ -3410,10 +3427,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="B90" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C90" t="s">
         <v>51</v>
@@ -3436,17 +3453,23 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="B91" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C91" t="s">
-        <v>51</v>
-      </c>
-      <c r="D91"/>
-      <c r="E91"/>
-      <c r="F91"/>
+        <v>61</v>
+      </c>
+      <c r="D91" t="s">
+        <v>60</v>
+      </c>
+      <c r="E91" t="s">
+        <v>60</v>
+      </c>
+      <c r="F91" t="b">
+        <v>0</v>
+      </c>
       <c r="G91"/>
       <c r="H91"/>
       <c r="I91" t="b">
@@ -3462,16 +3485,20 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="B92" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C92" t="s">
-        <v>51</v>
-      </c>
-      <c r="D92"/>
-      <c r="E92"/>
+        <v>63</v>
+      </c>
+      <c r="D92" t="s">
+        <v>64</v>
+      </c>
+      <c r="E92" t="s">
+        <v>64</v>
+      </c>
       <c r="F92"/>
       <c r="G92"/>
       <c r="H92"/>
@@ -3488,10 +3515,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>127</v>
+        <v>65</v>
       </c>
       <c r="B93" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C93" t="s">
         <v>51</v>
@@ -3499,25 +3526,31 @@
       <c r="D93"/>
       <c r="E93"/>
       <c r="F93"/>
-      <c r="G93"/>
-      <c r="H93"/>
+      <c r="G93" t="s">
+        <v>66</v>
+      </c>
+      <c r="H93" t="s">
+        <v>67</v>
+      </c>
       <c r="I93" t="b">
-        <v>0</v>
-      </c>
-      <c r="J93"/>
+        <v>1</v>
+      </c>
+      <c r="J93" t="b">
+        <v>1</v>
+      </c>
       <c r="K93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
+        <v>111</v>
+      </c>
+      <c r="B94" t="s">
         <v>128</v>
-      </c>
-      <c r="B94" t="s">
-        <v>125</v>
       </c>
       <c r="C94" t="s">
         <v>51</v>
@@ -3540,10 +3573,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B95" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C95" t="s">
         <v>51</v>
@@ -3566,10 +3599,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="B96" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C96" t="s">
         <v>51</v>
@@ -3592,10 +3625,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B97" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C97" t="s">
         <v>51</v>
@@ -3618,10 +3651,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B98" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C98" t="s">
         <v>51</v>
@@ -3644,10 +3677,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="B99" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C99" t="s">
         <v>51</v>
@@ -3670,10 +3703,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B100" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C100" t="s">
         <v>51</v>
@@ -3696,23 +3729,17 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="B101" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C101" t="s">
-        <v>61</v>
-      </c>
-      <c r="D101" t="s">
-        <v>60</v>
-      </c>
-      <c r="E101" t="s">
-        <v>60</v>
-      </c>
-      <c r="F101" t="b">
-        <v>0</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D101"/>
+      <c r="E101"/>
+      <c r="F101"/>
       <c r="G101"/>
       <c r="H101"/>
       <c r="I101" t="b">
@@ -3728,10 +3755,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>62</v>
+        <v>133</v>
       </c>
       <c r="B102" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C102" t="s">
         <v>51</v>
@@ -3739,31 +3766,25 @@
       <c r="D102"/>
       <c r="E102"/>
       <c r="F102"/>
-      <c r="G102" t="s">
-        <v>63</v>
-      </c>
-      <c r="H102" t="s">
-        <v>64</v>
-      </c>
+      <c r="G102"/>
+      <c r="H102"/>
       <c r="I102" t="b">
-        <v>1</v>
-      </c>
-      <c r="J102" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102"/>
       <c r="K102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B103" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C103" t="s">
         <v>51</v>
@@ -3771,12 +3792,8 @@
       <c r="D103"/>
       <c r="E103"/>
       <c r="F103"/>
-      <c r="G103" t="s">
-        <v>134</v>
-      </c>
-      <c r="H103" t="s">
-        <v>135</v>
-      </c>
+      <c r="G103"/>
+      <c r="H103"/>
       <c r="I103" t="b">
         <v>0</v>
       </c>
@@ -3790,10 +3807,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B104" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C104" t="s">
         <v>51</v>
@@ -3801,12 +3818,8 @@
       <c r="D104"/>
       <c r="E104"/>
       <c r="F104"/>
-      <c r="G104" t="s">
-        <v>137</v>
-      </c>
-      <c r="H104" t="s">
-        <v>138</v>
-      </c>
+      <c r="G104"/>
+      <c r="H104"/>
       <c r="I104" t="b">
         <v>0</v>
       </c>
@@ -3820,10 +3833,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="B105" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C105" t="s">
         <v>51</v>
@@ -3846,10 +3859,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="B106" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C106" t="s">
         <v>51</v>
@@ -3872,17 +3885,23 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>141</v>
+        <v>60</v>
       </c>
       <c r="B107" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C107" t="s">
-        <v>57</v>
-      </c>
-      <c r="D107"/>
-      <c r="E107"/>
-      <c r="F107"/>
+        <v>61</v>
+      </c>
+      <c r="D107" t="s">
+        <v>60</v>
+      </c>
+      <c r="E107" t="s">
+        <v>60</v>
+      </c>
+      <c r="F107" t="b">
+        <v>0</v>
+      </c>
       <c r="G107"/>
       <c r="H107"/>
       <c r="I107" t="b">
@@ -3898,23 +3917,23 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>142</v>
+        <v>62</v>
       </c>
       <c r="B108" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C108" t="s">
-        <v>57</v>
-      </c>
-      <c r="D108"/>
-      <c r="E108"/>
+        <v>63</v>
+      </c>
+      <c r="D108" t="s">
+        <v>64</v>
+      </c>
+      <c r="E108" t="s">
+        <v>64</v>
+      </c>
       <c r="F108"/>
-      <c r="G108" t="s">
-        <v>143</v>
-      </c>
-      <c r="H108" t="s">
-        <v>143</v>
-      </c>
+      <c r="G108"/>
+      <c r="H108"/>
       <c r="I108" t="b">
         <v>0</v>
       </c>
@@ -3928,10 +3947,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>144</v>
+        <v>65</v>
       </c>
       <c r="B109" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C109" t="s">
         <v>51</v>
@@ -3939,40 +3958,44 @@
       <c r="D109"/>
       <c r="E109"/>
       <c r="F109"/>
-      <c r="G109"/>
-      <c r="H109"/>
+      <c r="G109" t="s">
+        <v>66</v>
+      </c>
+      <c r="H109" t="s">
+        <v>67</v>
+      </c>
       <c r="I109" t="b">
-        <v>0</v>
-      </c>
-      <c r="J109"/>
+        <v>1</v>
+      </c>
+      <c r="J109" t="b">
+        <v>1</v>
+      </c>
       <c r="K109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="B110" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C110" t="s">
-        <v>61</v>
-      </c>
-      <c r="D110" t="s">
-        <v>60</v>
-      </c>
-      <c r="E110" t="s">
-        <v>60</v>
-      </c>
-      <c r="F110" t="b">
-        <v>0</v>
-      </c>
-      <c r="G110"/>
-      <c r="H110"/>
+        <v>51</v>
+      </c>
+      <c r="D110"/>
+      <c r="E110"/>
+      <c r="F110"/>
+      <c r="G110" t="s">
+        <v>137</v>
+      </c>
+      <c r="H110" t="s">
+        <v>138</v>
+      </c>
       <c r="I110" t="b">
         <v>0</v>
       </c>
@@ -3986,10 +4009,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="B111" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C111" t="s">
         <v>51</v>
@@ -3998,21 +4021,247 @@
       <c r="E111"/>
       <c r="F111"/>
       <c r="G111" t="s">
+        <v>140</v>
+      </c>
+      <c r="H111" t="s">
+        <v>141</v>
+      </c>
+      <c r="I111" t="b">
+        <v>0</v>
+      </c>
+      <c r="J111"/>
+      <c r="K111" t="b">
+        <v>1</v>
+      </c>
+      <c r="L111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>142</v>
+      </c>
+      <c r="B112" t="s">
+        <v>136</v>
+      </c>
+      <c r="C112" t="s">
+        <v>51</v>
+      </c>
+      <c r="D112"/>
+      <c r="E112"/>
+      <c r="F112"/>
+      <c r="G112"/>
+      <c r="H112"/>
+      <c r="I112" t="b">
+        <v>0</v>
+      </c>
+      <c r="J112"/>
+      <c r="K112" t="b">
+        <v>1</v>
+      </c>
+      <c r="L112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>143</v>
+      </c>
+      <c r="B113" t="s">
+        <v>136</v>
+      </c>
+      <c r="C113" t="s">
+        <v>51</v>
+      </c>
+      <c r="D113"/>
+      <c r="E113"/>
+      <c r="F113"/>
+      <c r="G113"/>
+      <c r="H113"/>
+      <c r="I113" t="b">
+        <v>0</v>
+      </c>
+      <c r="J113"/>
+      <c r="K113" t="b">
+        <v>1</v>
+      </c>
+      <c r="L113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>144</v>
+      </c>
+      <c r="B114" t="s">
+        <v>136</v>
+      </c>
+      <c r="C114" t="s">
+        <v>57</v>
+      </c>
+      <c r="D114"/>
+      <c r="E114"/>
+      <c r="F114"/>
+      <c r="G114"/>
+      <c r="H114"/>
+      <c r="I114" t="b">
+        <v>0</v>
+      </c>
+      <c r="J114"/>
+      <c r="K114" t="b">
+        <v>1</v>
+      </c>
+      <c r="L114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>145</v>
+      </c>
+      <c r="B115" t="s">
+        <v>136</v>
+      </c>
+      <c r="C115" t="s">
+        <v>57</v>
+      </c>
+      <c r="D115"/>
+      <c r="E115"/>
+      <c r="F115"/>
+      <c r="G115" t="s">
+        <v>146</v>
+      </c>
+      <c r="H115" t="s">
+        <v>146</v>
+      </c>
+      <c r="I115" t="b">
+        <v>0</v>
+      </c>
+      <c r="J115"/>
+      <c r="K115" t="b">
+        <v>1</v>
+      </c>
+      <c r="L115" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>147</v>
+      </c>
+      <c r="B116" t="s">
+        <v>136</v>
+      </c>
+      <c r="C116" t="s">
+        <v>51</v>
+      </c>
+      <c r="D116"/>
+      <c r="E116"/>
+      <c r="F116"/>
+      <c r="G116"/>
+      <c r="H116"/>
+      <c r="I116" t="b">
+        <v>0</v>
+      </c>
+      <c r="J116"/>
+      <c r="K116" t="b">
+        <v>1</v>
+      </c>
+      <c r="L116" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>60</v>
+      </c>
+      <c r="B117" t="s">
+        <v>136</v>
+      </c>
+      <c r="C117" t="s">
+        <v>61</v>
+      </c>
+      <c r="D117" t="s">
+        <v>60</v>
+      </c>
+      <c r="E117" t="s">
+        <v>60</v>
+      </c>
+      <c r="F117" t="b">
+        <v>0</v>
+      </c>
+      <c r="G117"/>
+      <c r="H117"/>
+      <c r="I117" t="b">
+        <v>0</v>
+      </c>
+      <c r="J117"/>
+      <c r="K117" t="b">
+        <v>1</v>
+      </c>
+      <c r="L117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>62</v>
+      </c>
+      <c r="B118" t="s">
+        <v>136</v>
+      </c>
+      <c r="C118" t="s">
         <v>63</v>
       </c>
-      <c r="H111" t="s">
+      <c r="D118" t="s">
         <v>64</v>
       </c>
-      <c r="I111" t="b">
-        <v>1</v>
-      </c>
-      <c r="J111" t="b">
-        <v>1</v>
-      </c>
-      <c r="K111" t="b">
-        <v>0</v>
-      </c>
-      <c r="L111" t="b">
+      <c r="E118" t="s">
+        <v>64</v>
+      </c>
+      <c r="F118"/>
+      <c r="G118"/>
+      <c r="H118"/>
+      <c r="I118" t="b">
+        <v>0</v>
+      </c>
+      <c r="J118"/>
+      <c r="K118" t="b">
+        <v>1</v>
+      </c>
+      <c r="L118" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>65</v>
+      </c>
+      <c r="B119" t="s">
+        <v>136</v>
+      </c>
+      <c r="C119" t="s">
+        <v>51</v>
+      </c>
+      <c r="D119"/>
+      <c r="E119"/>
+      <c r="F119"/>
+      <c r="G119" t="s">
+        <v>66</v>
+      </c>
+      <c r="H119" t="s">
+        <v>67</v>
+      </c>
+      <c r="I119" t="b">
+        <v>1</v>
+      </c>
+      <c r="J119" t="b">
+        <v>1</v>
+      </c>
+      <c r="K119" t="b">
+        <v>0</v>
+      </c>
+      <c r="L119" t="b">
         <v>1</v>
       </c>
     </row>

--- a/emx/cosas-portal/cosasportal.xlsx
+++ b/emx/cosas-portal/cosasportal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -31,7 +31,7 @@
     <t xml:space="preserve">COSAS Portal</t>
   </si>
   <si>
-    <t xml:space="preserve">Staging tables for raw data extracts (v0.9005, 2021-07-21)</t>
+    <t xml:space="preserve">Staging tables for raw data extracts (v0.901, 2021-08-19)</t>
   </si>
   <si>
     <t xml:space="preserve">label-nl</t>
@@ -163,7 +163,7 @@
     <t xml:space="preserve">lookupAttribute</t>
   </si>
   <si>
-    <t xml:space="preserve">UMCG_nummer</t>
+    <t xml:space="preserve">UMCG_NUMBER</t>
   </si>
   <si>
     <t xml:space="preserve">cosasportal_patients</t>
@@ -172,28 +172,28 @@
     <t xml:space="preserve">string</t>
   </si>
   <si>
-    <t xml:space="preserve">Overlijdensdatum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Familienummer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geboortedatum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geslacht</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Familieleden</t>
+    <t xml:space="preserve">OVERLIJDENSDATUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAMILIENUMMER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEBOORTEDATUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GESLACHT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAMILIELEDEN</t>
   </si>
   <si>
     <t xml:space="preserve">text</t>
   </si>
   <si>
-    <t xml:space="preserve">UMCG_moeder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UMCG_vader</t>
+    <t xml:space="preserve">UMCG_MOEDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UMCG_VADER</t>
   </si>
   <si>
     <t xml:space="preserve">processed</t>
@@ -202,15 +202,12 @@
     <t xml:space="preserve">bool</t>
   </si>
   <si>
-    <t xml:space="preserve">date_processed</t>
+    <t xml:space="preserve">dataProcessed</t>
   </si>
   <si>
     <t xml:space="preserve">dateTime</t>
   </si>
   <si>
-    <t xml:space="preserve">Date Processed</t>
-  </si>
-  <si>
     <t xml:space="preserve">id</t>
   </si>
   <si>
@@ -220,9 +217,6 @@
     <t xml:space="preserve">automatisch gegenereerde Molgenis-ID</t>
   </si>
   <si>
-    <t xml:space="preserve">UMCG_NUMBER</t>
-  </si>
-  <si>
     <t xml:space="preserve">cosasportal_diagnoses</t>
   </si>
   <si>
@@ -232,10 +226,10 @@
     <t xml:space="preserve">HOOFDDIAGNOSE_ZEKERHEID</t>
   </si>
   <si>
-    <t xml:space="preserve">EXTRADIAGNOSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXTRADIAGNOSE_ZEKERHEID</t>
+    <t xml:space="preserve">EXTRA_DIAGNOSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXTRA_DIAGNOSE_ZEKERHEID</t>
   </si>
   <si>
     <t xml:space="preserve">DATUM_EERSTE_CONSULT</t>
@@ -253,6 +247,9 @@
     <t xml:space="preserve">ADVVRG_ID</t>
   </si>
   <si>
+    <t xml:space="preserve">ADVIESVRAAG_DATUM</t>
+  </si>
+  <si>
     <t xml:space="preserve">MONSTER_ID</t>
   </si>
   <si>
@@ -268,15 +265,42 @@
     <t xml:space="preserve">MATERIAAL</t>
   </si>
   <si>
-    <t xml:space="preserve">UITSLAG_TEKST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UITSLAGCODE</t>
+    <t xml:space="preserve">EINDUITSLAGTEKST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EINDUITSLAG_DATUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVIESVRAAGUITSLAG_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVIESVRAAGUITSLAG_CODE</t>
   </si>
   <si>
     <t xml:space="preserve">AANDOENING_CODE</t>
   </si>
   <si>
+    <t xml:space="preserve">LABUITSLAGTEKST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LABUITSLAG_COMMENTAAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LABUITSLAG_DATUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LABUITSLAG_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LABUITSLAG_CODE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LABRESULTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTHORISED</t>
+  </si>
+  <si>
     <t xml:space="preserve">cosasportal_labs_array_adlas</t>
   </si>
   <si>
@@ -331,22 +355,22 @@
     <t xml:space="preserve">SGA_OMIM_MORBIDMAP_COUNT</t>
   </si>
   <si>
+    <t xml:space="preserve">SGA_PROBE_MEDIAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SGA_REFSEQ_CODING_GENES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SGA_REFSEQ_CODING_GENES_COUNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SGA_REGIONS_UMCG_CNV_NL_COUNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SGA_SIMILAR_PREVIOUS_CASES</t>
+  </si>
+  <si>
     <t xml:space="preserve">SGA_OVERERVING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SGA_PROBE_MEDIAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SGA_REFSEQ_CODING_GENES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SGA_REFSEQ_CODING_GENES_COUNT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SGA_REGIONS_UMCG_CNV_NL_COUNT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SGA_SIMILAR_PREVIOUS_CASES</t>
   </si>
   <si>
     <t xml:space="preserve">UmcgNr</t>
@@ -1030,30 +1054,24 @@
         <v>43</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="I1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1070,16 +1088,14 @@
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2"/>
-      <c r="G2"/>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
       <c r="H2"/>
       <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2"/>
-      <c r="K2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1096,16 +1112,14 @@
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3"/>
-      <c r="G3"/>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
       <c r="H3"/>
       <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3"/>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1122,16 +1136,14 @@
       <c r="D4"/>
       <c r="E4"/>
       <c r="F4"/>
-      <c r="G4"/>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
       <c r="H4"/>
       <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4"/>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1148,16 +1160,14 @@
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5"/>
-      <c r="G5"/>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
       <c r="H5"/>
       <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5"/>
-      <c r="K5" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1174,16 +1184,14 @@
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6"/>
-      <c r="G6"/>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
       <c r="H6"/>
       <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6"/>
-      <c r="K6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1200,16 +1208,14 @@
       <c r="D7"/>
       <c r="E7"/>
       <c r="F7"/>
-      <c r="G7"/>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
       <c r="H7"/>
       <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7"/>
-      <c r="K7" t="b">
-        <v>1</v>
-      </c>
-      <c r="L7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1226,16 +1232,14 @@
       <c r="D8"/>
       <c r="E8"/>
       <c r="F8"/>
-      <c r="G8"/>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
       <c r="H8"/>
       <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8"/>
-      <c r="K8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1252,16 +1256,14 @@
       <c r="D9"/>
       <c r="E9"/>
       <c r="F9"/>
-      <c r="G9"/>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
       <c r="H9"/>
       <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9"/>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1275,25 +1277,19 @@
       <c r="C10" t="s">
         <v>61</v>
       </c>
-      <c r="D10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10"/>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
       <c r="H10"/>
       <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10"/>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1307,29 +1303,23 @@
       <c r="C11" t="s">
         <v>63</v>
       </c>
-      <c r="D11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" t="s">
-        <v>64</v>
-      </c>
+      <c r="D11"/>
+      <c r="E11"/>
       <c r="F11"/>
-      <c r="G11"/>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
       <c r="H11"/>
       <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11"/>
-      <c r="K11" t="b">
-        <v>1</v>
-      </c>
-      <c r="L11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
         <v>50</v>
@@ -1338,33 +1328,31 @@
         <v>51</v>
       </c>
       <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12" t="s">
+      <c r="E12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" t="s">
         <v>66</v>
       </c>
-      <c r="H12" t="s">
-        <v>67</v>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="b">
-        <v>1</v>
-      </c>
-      <c r="K12" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
         <v>51</v>
@@ -1372,25 +1360,23 @@
       <c r="D13"/>
       <c r="E13"/>
       <c r="F13"/>
-      <c r="G13"/>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
       <c r="H13"/>
       <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13"/>
-      <c r="K13" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
         <v>51</v>
@@ -1398,25 +1384,23 @@
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14"/>
-      <c r="G14"/>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
       <c r="H14"/>
       <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14"/>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
         <v>51</v>
@@ -1424,25 +1408,23 @@
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15"/>
-      <c r="G15"/>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
       <c r="H15"/>
       <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15"/>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
         <v>51</v>
@@ -1450,25 +1432,23 @@
       <c r="D16"/>
       <c r="E16"/>
       <c r="F16"/>
-      <c r="G16"/>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
       <c r="H16"/>
       <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16"/>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
         <v>51</v>
@@ -1476,25 +1456,23 @@
       <c r="D17"/>
       <c r="E17"/>
       <c r="F17"/>
-      <c r="G17"/>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
       <c r="H17"/>
       <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17"/>
-      <c r="K17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
         <v>51</v>
@@ -1502,25 +1480,23 @@
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18"/>
-      <c r="G18"/>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
       <c r="H18"/>
       <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18"/>
-      <c r="K18" t="b">
-        <v>1</v>
-      </c>
-      <c r="L18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
         <v>51</v>
@@ -1528,16 +1504,14 @@
       <c r="D19"/>
       <c r="E19"/>
       <c r="F19"/>
-      <c r="G19"/>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
       <c r="H19"/>
       <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19"/>
-      <c r="K19" t="b">
-        <v>1</v>
-      </c>
-      <c r="L19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1546,30 +1520,24 @@
         <v>60</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
         <v>61</v>
       </c>
-      <c r="D20" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G20"/>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
       <c r="H20"/>
       <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20"/>
-      <c r="K20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1578,69 +1546,61 @@
         <v>62</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
         <v>63</v>
       </c>
-      <c r="D21" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" t="s">
-        <v>64</v>
-      </c>
+      <c r="D21"/>
+      <c r="E21"/>
       <c r="F21"/>
-      <c r="G21"/>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
       <c r="H21"/>
       <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21"/>
-      <c r="K21" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22"/>
+      <c r="E22" t="s">
         <v>65</v>
       </c>
-      <c r="B22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22" t="s">
+      <c r="F22" t="s">
         <v>66</v>
       </c>
-      <c r="H22" t="s">
-        <v>67</v>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="b">
-        <v>1</v>
-      </c>
-      <c r="K22" t="b">
-        <v>0</v>
-      </c>
-      <c r="L22" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C23" t="s">
         <v>51</v>
@@ -1648,25 +1608,23 @@
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
-      <c r="G23"/>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
       <c r="H23"/>
       <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23"/>
-      <c r="K23" t="b">
-        <v>1</v>
-      </c>
-      <c r="L23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
         <v>51</v>
@@ -1674,25 +1632,23 @@
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24"/>
-      <c r="G24"/>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
       <c r="H24"/>
       <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24"/>
-      <c r="K24" t="b">
-        <v>1</v>
-      </c>
-      <c r="L24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
         <v>51</v>
@@ -1700,25 +1656,23 @@
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25"/>
-      <c r="G25"/>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
       <c r="H25"/>
       <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25"/>
-      <c r="K25" t="b">
-        <v>1</v>
-      </c>
-      <c r="L25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
         <v>51</v>
@@ -1726,25 +1680,23 @@
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26"/>
-      <c r="G26"/>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
       <c r="H26"/>
       <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26"/>
-      <c r="K26" t="b">
-        <v>1</v>
-      </c>
-      <c r="L26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
         <v>51</v>
@@ -1752,51 +1704,47 @@
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27"/>
-      <c r="G27"/>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
       <c r="H27"/>
       <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27"/>
-      <c r="K27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L27" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28"/>
-      <c r="G28"/>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
       <c r="H28"/>
       <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28"/>
-      <c r="K28" t="b">
-        <v>1</v>
-      </c>
-      <c r="L28" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
         <v>51</v>
@@ -1804,77 +1752,71 @@
       <c r="D29"/>
       <c r="E29"/>
       <c r="F29"/>
-      <c r="G29"/>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
       <c r="H29"/>
       <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29"/>
-      <c r="K29" t="b">
-        <v>1</v>
-      </c>
-      <c r="L29" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D30"/>
       <c r="E30"/>
       <c r="F30"/>
-      <c r="G30"/>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
       <c r="H30"/>
       <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30"/>
-      <c r="K30" t="b">
-        <v>1</v>
-      </c>
-      <c r="L30" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31"/>
-      <c r="G31"/>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
       <c r="H31"/>
       <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31"/>
-      <c r="K31" t="b">
-        <v>1</v>
-      </c>
-      <c r="L31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C32" t="s">
         <v>51</v>
@@ -1882,87 +1824,71 @@
       <c r="D32"/>
       <c r="E32"/>
       <c r="F32"/>
-      <c r="G32"/>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
       <c r="H32"/>
       <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32"/>
-      <c r="K32" t="b">
-        <v>1</v>
-      </c>
-      <c r="L32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33" t="s">
-        <v>60</v>
-      </c>
-      <c r="E33" t="s">
-        <v>60</v>
-      </c>
-      <c r="F33" t="b">
-        <v>0</v>
-      </c>
-      <c r="G33"/>
+        <v>51</v>
+      </c>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
       <c r="H33"/>
       <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33"/>
-      <c r="K33" t="b">
-        <v>1</v>
-      </c>
-      <c r="L33" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="B34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>63</v>
-      </c>
-      <c r="D34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E34" t="s">
-        <v>64</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D34"/>
+      <c r="E34"/>
       <c r="F34"/>
-      <c r="G34"/>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
       <c r="H34"/>
       <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34"/>
-      <c r="K34" t="b">
-        <v>1</v>
-      </c>
-      <c r="L34" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s">
         <v>51</v>
@@ -1970,83 +1896,71 @@
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35"/>
-      <c r="G35" t="s">
-        <v>66</v>
-      </c>
-      <c r="H35" t="s">
-        <v>67</v>
-      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35"/>
       <c r="I35" t="b">
         <v>1</v>
       </c>
       <c r="J35" t="b">
-        <v>1</v>
-      </c>
-      <c r="K35" t="b">
-        <v>0</v>
-      </c>
-      <c r="L35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C36" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D36"/>
       <c r="E36"/>
       <c r="F36"/>
-      <c r="G36"/>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
       <c r="H36"/>
       <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36"/>
-      <c r="K36" t="b">
-        <v>1</v>
-      </c>
-      <c r="L36" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="B37" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D37"/>
       <c r="E37"/>
       <c r="F37"/>
-      <c r="G37"/>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
       <c r="H37"/>
       <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37"/>
-      <c r="K37" t="b">
-        <v>1</v>
-      </c>
-      <c r="L37" t="b">
+        <v>1</v>
+      </c>
+      <c r="J37" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C38" t="s">
         <v>51</v>
@@ -2054,25 +1968,23 @@
       <c r="D38"/>
       <c r="E38"/>
       <c r="F38"/>
-      <c r="G38"/>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
       <c r="H38"/>
       <c r="I38" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38"/>
-      <c r="K38" t="b">
-        <v>1</v>
-      </c>
-      <c r="L38" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C39" t="s">
         <v>51</v>
@@ -2080,51 +1992,47 @@
       <c r="D39"/>
       <c r="E39"/>
       <c r="F39"/>
-      <c r="G39"/>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
       <c r="H39"/>
       <c r="I39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39"/>
-      <c r="K39" t="b">
-        <v>1</v>
-      </c>
-      <c r="L39" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D40"/>
       <c r="E40"/>
       <c r="F40"/>
-      <c r="G40"/>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
       <c r="H40"/>
       <c r="I40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40"/>
-      <c r="K40" t="b">
-        <v>1</v>
-      </c>
-      <c r="L40" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="B41" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C41" t="s">
         <v>51</v>
@@ -2132,25 +2040,23 @@
       <c r="D41"/>
       <c r="E41"/>
       <c r="F41"/>
-      <c r="G41"/>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
       <c r="H41"/>
       <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41"/>
-      <c r="K41" t="b">
-        <v>1</v>
-      </c>
-      <c r="L41" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B42" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C42" t="s">
         <v>51</v>
@@ -2158,103 +2064,103 @@
       <c r="D42"/>
       <c r="E42"/>
       <c r="F42"/>
-      <c r="G42"/>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
       <c r="H42"/>
       <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42"/>
-      <c r="K42" t="b">
-        <v>1</v>
-      </c>
-      <c r="L42" t="b">
+        <v>1</v>
+      </c>
+      <c r="J42" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C43" t="s">
-        <v>51</v>
-      </c>
-      <c r="D43"/>
+        <v>61</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
       <c r="E43"/>
       <c r="F43"/>
-      <c r="G43"/>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
       <c r="H43"/>
       <c r="I43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43"/>
-      <c r="K43" t="b">
-        <v>1</v>
-      </c>
-      <c r="L43" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C44" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
       <c r="F44"/>
-      <c r="G44"/>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
       <c r="H44"/>
       <c r="I44" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44"/>
-      <c r="K44" t="b">
-        <v>1</v>
-      </c>
-      <c r="L44" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="B45" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C45" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D45"/>
-      <c r="E45"/>
-      <c r="F45"/>
-      <c r="G45"/>
-      <c r="H45"/>
+      <c r="E45" t="s">
+        <v>65</v>
+      </c>
+      <c r="F45" t="s">
+        <v>66</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" t="b">
+        <v>1</v>
+      </c>
       <c r="I45" t="b">
         <v>0</v>
       </c>
-      <c r="J45"/>
-      <c r="K45" t="b">
-        <v>1</v>
-      </c>
-      <c r="L45" t="b">
-        <v>0</v>
+      <c r="J45" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C46" t="s">
         <v>51</v>
@@ -2262,25 +2168,23 @@
       <c r="D46"/>
       <c r="E46"/>
       <c r="F46"/>
-      <c r="G46"/>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
       <c r="H46"/>
       <c r="I46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46"/>
-      <c r="K46" t="b">
-        <v>1</v>
-      </c>
-      <c r="L46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J46" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="B47" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C47" t="s">
         <v>51</v>
@@ -2288,25 +2192,23 @@
       <c r="D47"/>
       <c r="E47"/>
       <c r="F47"/>
-      <c r="G47"/>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
       <c r="H47"/>
       <c r="I47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47"/>
-      <c r="K47" t="b">
-        <v>1</v>
-      </c>
-      <c r="L47" t="b">
+        <v>1</v>
+      </c>
+      <c r="J47" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48" t="s">
         <v>95</v>
-      </c>
-      <c r="B48" t="s">
-        <v>87</v>
       </c>
       <c r="C48" t="s">
         <v>51</v>
@@ -2314,16 +2216,14 @@
       <c r="D48"/>
       <c r="E48"/>
       <c r="F48"/>
-      <c r="G48"/>
+      <c r="G48" t="b">
+        <v>0</v>
+      </c>
       <c r="H48"/>
       <c r="I48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48"/>
-      <c r="K48" t="b">
-        <v>1</v>
-      </c>
-      <c r="L48" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2332,7 +2232,7 @@
         <v>96</v>
       </c>
       <c r="B49" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C49" t="s">
         <v>51</v>
@@ -2340,25 +2240,23 @@
       <c r="D49"/>
       <c r="E49"/>
       <c r="F49"/>
-      <c r="G49"/>
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
       <c r="H49"/>
       <c r="I49" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49"/>
-      <c r="K49" t="b">
-        <v>1</v>
-      </c>
-      <c r="L49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="B50" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C50" t="s">
         <v>51</v>
@@ -2366,25 +2264,23 @@
       <c r="D50"/>
       <c r="E50"/>
       <c r="F50"/>
-      <c r="G50"/>
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
       <c r="H50"/>
       <c r="I50" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50"/>
-      <c r="K50" t="b">
-        <v>1</v>
-      </c>
-      <c r="L50" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B51" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C51" t="s">
         <v>51</v>
@@ -2392,25 +2288,23 @@
       <c r="D51"/>
       <c r="E51"/>
       <c r="F51"/>
-      <c r="G51"/>
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
       <c r="H51"/>
       <c r="I51" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51"/>
-      <c r="K51" t="b">
-        <v>1</v>
-      </c>
-      <c r="L51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B52" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C52" t="s">
         <v>51</v>
@@ -2418,25 +2312,23 @@
       <c r="D52"/>
       <c r="E52"/>
       <c r="F52"/>
-      <c r="G52"/>
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
       <c r="H52"/>
       <c r="I52" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52"/>
-      <c r="K52" t="b">
-        <v>1</v>
-      </c>
-      <c r="L52" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B53" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C53" t="s">
         <v>51</v>
@@ -2444,25 +2336,23 @@
       <c r="D53"/>
       <c r="E53"/>
       <c r="F53"/>
-      <c r="G53"/>
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
       <c r="H53"/>
       <c r="I53" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53"/>
-      <c r="K53" t="b">
-        <v>1</v>
-      </c>
-      <c r="L53" t="b">
+        <v>1</v>
+      </c>
+      <c r="J53" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B54" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C54" t="s">
         <v>51</v>
@@ -2470,25 +2360,23 @@
       <c r="D54"/>
       <c r="E54"/>
       <c r="F54"/>
-      <c r="G54"/>
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
       <c r="H54"/>
       <c r="I54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54"/>
-      <c r="K54" t="b">
-        <v>1</v>
-      </c>
-      <c r="L54" t="b">
+        <v>1</v>
+      </c>
+      <c r="J54" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B55" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C55" t="s">
         <v>57</v>
@@ -2496,51 +2384,47 @@
       <c r="D55"/>
       <c r="E55"/>
       <c r="F55"/>
-      <c r="G55"/>
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
       <c r="H55"/>
       <c r="I55" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55"/>
-      <c r="K55" t="b">
-        <v>1</v>
-      </c>
-      <c r="L55" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B56" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C56" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D56"/>
       <c r="E56"/>
       <c r="F56"/>
-      <c r="G56"/>
+      <c r="G56" t="b">
+        <v>0</v>
+      </c>
       <c r="H56"/>
       <c r="I56" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56"/>
-      <c r="K56" t="b">
-        <v>1</v>
-      </c>
-      <c r="L56" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B57" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C57" t="s">
         <v>51</v>
@@ -2548,25 +2432,23 @@
       <c r="D57"/>
       <c r="E57"/>
       <c r="F57"/>
-      <c r="G57"/>
+      <c r="G57" t="b">
+        <v>0</v>
+      </c>
       <c r="H57"/>
       <c r="I57" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57"/>
-      <c r="K57" t="b">
-        <v>1</v>
-      </c>
-      <c r="L57" t="b">
+        <v>1</v>
+      </c>
+      <c r="J57" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B58" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C58" t="s">
         <v>51</v>
@@ -2574,25 +2456,23 @@
       <c r="D58"/>
       <c r="E58"/>
       <c r="F58"/>
-      <c r="G58"/>
+      <c r="G58" t="b">
+        <v>0</v>
+      </c>
       <c r="H58"/>
       <c r="I58" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58"/>
-      <c r="K58" t="b">
-        <v>1</v>
-      </c>
-      <c r="L58" t="b">
+        <v>1</v>
+      </c>
+      <c r="J58" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B59" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C59" t="s">
         <v>51</v>
@@ -2600,51 +2480,47 @@
       <c r="D59"/>
       <c r="E59"/>
       <c r="F59"/>
-      <c r="G59"/>
+      <c r="G59" t="b">
+        <v>0</v>
+      </c>
       <c r="H59"/>
       <c r="I59" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59"/>
-      <c r="K59" t="b">
-        <v>1</v>
-      </c>
-      <c r="L59" t="b">
+        <v>1</v>
+      </c>
+      <c r="J59" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B60" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C60" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D60"/>
       <c r="E60"/>
       <c r="F60"/>
-      <c r="G60"/>
+      <c r="G60" t="b">
+        <v>0</v>
+      </c>
       <c r="H60"/>
       <c r="I60" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60"/>
-      <c r="K60" t="b">
-        <v>1</v>
-      </c>
-      <c r="L60" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B61" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C61" t="s">
         <v>51</v>
@@ -2652,25 +2528,23 @@
       <c r="D61"/>
       <c r="E61"/>
       <c r="F61"/>
-      <c r="G61"/>
+      <c r="G61" t="b">
+        <v>0</v>
+      </c>
       <c r="H61"/>
       <c r="I61" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61"/>
-      <c r="K61" t="b">
-        <v>1</v>
-      </c>
-      <c r="L61" t="b">
+        <v>1</v>
+      </c>
+      <c r="J61" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B62" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C62" t="s">
         <v>51</v>
@@ -2678,25 +2552,23 @@
       <c r="D62"/>
       <c r="E62"/>
       <c r="F62"/>
-      <c r="G62"/>
+      <c r="G62" t="b">
+        <v>0</v>
+      </c>
       <c r="H62"/>
       <c r="I62" t="b">
-        <v>0</v>
-      </c>
-      <c r="J62"/>
-      <c r="K62" t="b">
-        <v>1</v>
-      </c>
-      <c r="L62" t="b">
+        <v>1</v>
+      </c>
+      <c r="J62" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B63" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C63" t="s">
         <v>51</v>
@@ -2704,119 +2576,95 @@
       <c r="D63"/>
       <c r="E63"/>
       <c r="F63"/>
-      <c r="G63"/>
+      <c r="G63" t="b">
+        <v>0</v>
+      </c>
       <c r="H63"/>
       <c r="I63" t="b">
-        <v>0</v>
-      </c>
-      <c r="J63"/>
-      <c r="K63" t="b">
-        <v>1</v>
-      </c>
-      <c r="L63" t="b">
+        <v>1</v>
+      </c>
+      <c r="J63" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="B64" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C64" t="s">
-        <v>61</v>
-      </c>
-      <c r="D64" t="s">
-        <v>60</v>
-      </c>
-      <c r="E64" t="s">
-        <v>60</v>
-      </c>
-      <c r="F64" t="b">
-        <v>0</v>
-      </c>
-      <c r="G64"/>
+        <v>51</v>
+      </c>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64" t="b">
+        <v>0</v>
+      </c>
       <c r="H64"/>
       <c r="I64" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64"/>
-      <c r="K64" t="b">
-        <v>1</v>
-      </c>
-      <c r="L64" t="b">
+        <v>1</v>
+      </c>
+      <c r="J64" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="B65" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C65" t="s">
-        <v>63</v>
-      </c>
-      <c r="D65" t="s">
-        <v>64</v>
-      </c>
-      <c r="E65" t="s">
-        <v>64</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D65"/>
+      <c r="E65"/>
       <c r="F65"/>
-      <c r="G65"/>
+      <c r="G65" t="b">
+        <v>0</v>
+      </c>
       <c r="H65"/>
       <c r="I65" t="b">
-        <v>0</v>
-      </c>
-      <c r="J65"/>
-      <c r="K65" t="b">
-        <v>1</v>
-      </c>
-      <c r="L65" t="b">
+        <v>1</v>
+      </c>
+      <c r="J65" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="B66" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C66" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D66"/>
       <c r="E66"/>
       <c r="F66"/>
-      <c r="G66" t="s">
-        <v>66</v>
-      </c>
-      <c r="H66" t="s">
-        <v>67</v>
-      </c>
+      <c r="G66" t="b">
+        <v>0</v>
+      </c>
+      <c r="H66"/>
       <c r="I66" t="b">
         <v>1</v>
       </c>
       <c r="J66" t="b">
-        <v>1</v>
-      </c>
-      <c r="K66" t="b">
-        <v>0</v>
-      </c>
-      <c r="L66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B67" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C67" t="s">
         <v>51</v>
@@ -2824,16 +2672,14 @@
       <c r="D67"/>
       <c r="E67"/>
       <c r="F67"/>
-      <c r="G67"/>
+      <c r="G67" t="b">
+        <v>0</v>
+      </c>
       <c r="H67"/>
       <c r="I67" t="b">
-        <v>0</v>
-      </c>
-      <c r="J67"/>
-      <c r="K67" t="b">
-        <v>1</v>
-      </c>
-      <c r="L67" t="b">
+        <v>1</v>
+      </c>
+      <c r="J67" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2842,7 +2688,7 @@
         <v>113</v>
       </c>
       <c r="B68" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C68" t="s">
         <v>51</v>
@@ -2850,16 +2696,14 @@
       <c r="D68"/>
       <c r="E68"/>
       <c r="F68"/>
-      <c r="G68"/>
+      <c r="G68" t="b">
+        <v>0</v>
+      </c>
       <c r="H68"/>
       <c r="I68" t="b">
-        <v>0</v>
-      </c>
-      <c r="J68"/>
-      <c r="K68" t="b">
-        <v>1</v>
-      </c>
-      <c r="L68" t="b">
+        <v>1</v>
+      </c>
+      <c r="J68" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2868,24 +2712,22 @@
         <v>114</v>
       </c>
       <c r="B69" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C69" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D69"/>
       <c r="E69"/>
       <c r="F69"/>
-      <c r="G69"/>
+      <c r="G69" t="b">
+        <v>0</v>
+      </c>
       <c r="H69"/>
       <c r="I69" t="b">
-        <v>0</v>
-      </c>
-      <c r="J69"/>
-      <c r="K69" t="b">
-        <v>1</v>
-      </c>
-      <c r="L69" t="b">
+        <v>1</v>
+      </c>
+      <c r="J69" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2894,7 +2736,7 @@
         <v>115</v>
       </c>
       <c r="B70" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C70" t="s">
         <v>51</v>
@@ -2902,16 +2744,14 @@
       <c r="D70"/>
       <c r="E70"/>
       <c r="F70"/>
-      <c r="G70"/>
+      <c r="G70" t="b">
+        <v>0</v>
+      </c>
       <c r="H70"/>
       <c r="I70" t="b">
-        <v>0</v>
-      </c>
-      <c r="J70"/>
-      <c r="K70" t="b">
-        <v>1</v>
-      </c>
-      <c r="L70" t="b">
+        <v>1</v>
+      </c>
+      <c r="J70" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2920,7 +2760,7 @@
         <v>116</v>
       </c>
       <c r="B71" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C71" t="s">
         <v>51</v>
@@ -2928,16 +2768,14 @@
       <c r="D71"/>
       <c r="E71"/>
       <c r="F71"/>
-      <c r="G71"/>
+      <c r="G71" t="b">
+        <v>0</v>
+      </c>
       <c r="H71"/>
       <c r="I71" t="b">
-        <v>0</v>
-      </c>
-      <c r="J71"/>
-      <c r="K71" t="b">
-        <v>1</v>
-      </c>
-      <c r="L71" t="b">
+        <v>1</v>
+      </c>
+      <c r="J71" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2946,7 +2784,7 @@
         <v>117</v>
       </c>
       <c r="B72" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C72" t="s">
         <v>51</v>
@@ -2954,16 +2792,14 @@
       <c r="D72"/>
       <c r="E72"/>
       <c r="F72"/>
-      <c r="G72"/>
+      <c r="G72" t="b">
+        <v>0</v>
+      </c>
       <c r="H72"/>
       <c r="I72" t="b">
-        <v>0</v>
-      </c>
-      <c r="J72"/>
-      <c r="K72" t="b">
-        <v>1</v>
-      </c>
-      <c r="L72" t="b">
+        <v>1</v>
+      </c>
+      <c r="J72" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2972,7 +2808,7 @@
         <v>118</v>
       </c>
       <c r="B73" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C73" t="s">
         <v>51</v>
@@ -2980,16 +2816,14 @@
       <c r="D73"/>
       <c r="E73"/>
       <c r="F73"/>
-      <c r="G73"/>
+      <c r="G73" t="b">
+        <v>0</v>
+      </c>
       <c r="H73"/>
       <c r="I73" t="b">
-        <v>0</v>
-      </c>
-      <c r="J73"/>
-      <c r="K73" t="b">
-        <v>1</v>
-      </c>
-      <c r="L73" t="b">
+        <v>1</v>
+      </c>
+      <c r="J73" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2998,30 +2832,24 @@
         <v>60</v>
       </c>
       <c r="B74" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C74" t="s">
         <v>61</v>
       </c>
-      <c r="D74" t="s">
-        <v>60</v>
-      </c>
-      <c r="E74" t="s">
-        <v>60</v>
-      </c>
-      <c r="F74" t="b">
-        <v>0</v>
-      </c>
-      <c r="G74"/>
+      <c r="D74" t="b">
+        <v>0</v>
+      </c>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74" t="b">
+        <v>0</v>
+      </c>
       <c r="H74"/>
       <c r="I74" t="b">
-        <v>0</v>
-      </c>
-      <c r="J74"/>
-      <c r="K74" t="b">
-        <v>1</v>
-      </c>
-      <c r="L74" t="b">
+        <v>1</v>
+      </c>
+      <c r="J74" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3030,69 +2858,61 @@
         <v>62</v>
       </c>
       <c r="B75" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C75" t="s">
         <v>63</v>
       </c>
-      <c r="D75" t="s">
-        <v>64</v>
-      </c>
-      <c r="E75" t="s">
-        <v>64</v>
-      </c>
+      <c r="D75"/>
+      <c r="E75"/>
       <c r="F75"/>
-      <c r="G75"/>
+      <c r="G75" t="b">
+        <v>0</v>
+      </c>
       <c r="H75"/>
       <c r="I75" t="b">
-        <v>0</v>
-      </c>
-      <c r="J75"/>
-      <c r="K75" t="b">
-        <v>1</v>
-      </c>
-      <c r="L75" t="b">
+        <v>1</v>
+      </c>
+      <c r="J75" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
+        <v>64</v>
+      </c>
+      <c r="B76" t="s">
+        <v>95</v>
+      </c>
+      <c r="C76" t="s">
+        <v>51</v>
+      </c>
+      <c r="D76"/>
+      <c r="E76" t="s">
         <v>65</v>
       </c>
-      <c r="B76" t="s">
-        <v>112</v>
-      </c>
-      <c r="C76" t="s">
-        <v>51</v>
-      </c>
-      <c r="D76"/>
-      <c r="E76"/>
-      <c r="F76"/>
-      <c r="G76" t="s">
+      <c r="F76" t="s">
         <v>66</v>
       </c>
-      <c r="H76" t="s">
-        <v>67</v>
+      <c r="G76" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76" t="b">
+        <v>1</v>
       </c>
       <c r="I76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="b">
-        <v>1</v>
-      </c>
-      <c r="K76" t="b">
-        <v>0</v>
-      </c>
-      <c r="L76" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="B77" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C77" t="s">
         <v>51</v>
@@ -3100,25 +2920,23 @@
       <c r="D77"/>
       <c r="E77"/>
       <c r="F77"/>
-      <c r="G77"/>
+      <c r="G77" t="b">
+        <v>0</v>
+      </c>
       <c r="H77"/>
       <c r="I77" t="b">
-        <v>0</v>
-      </c>
-      <c r="J77"/>
-      <c r="K77" t="b">
-        <v>1</v>
-      </c>
-      <c r="L77" t="b">
+        <v>1</v>
+      </c>
+      <c r="J77" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="B78" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C78" t="s">
         <v>51</v>
@@ -3126,25 +2944,23 @@
       <c r="D78"/>
       <c r="E78"/>
       <c r="F78"/>
-      <c r="G78"/>
+      <c r="G78" t="b">
+        <v>0</v>
+      </c>
       <c r="H78"/>
       <c r="I78" t="b">
-        <v>0</v>
-      </c>
-      <c r="J78"/>
-      <c r="K78" t="b">
-        <v>1</v>
-      </c>
-      <c r="L78" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="B79" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C79" t="s">
         <v>51</v>
@@ -3152,25 +2968,23 @@
       <c r="D79"/>
       <c r="E79"/>
       <c r="F79"/>
-      <c r="G79"/>
+      <c r="G79" t="b">
+        <v>0</v>
+      </c>
       <c r="H79"/>
       <c r="I79" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79"/>
-      <c r="K79" t="b">
-        <v>1</v>
-      </c>
-      <c r="L79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="B80" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C80" t="s">
         <v>51</v>
@@ -3178,25 +2992,23 @@
       <c r="D80"/>
       <c r="E80"/>
       <c r="F80"/>
-      <c r="G80"/>
+      <c r="G80" t="b">
+        <v>0</v>
+      </c>
       <c r="H80"/>
       <c r="I80" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80"/>
-      <c r="K80" t="b">
-        <v>1</v>
-      </c>
-      <c r="L80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="B81" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C81" t="s">
         <v>51</v>
@@ -3204,25 +3016,23 @@
       <c r="D81"/>
       <c r="E81"/>
       <c r="F81"/>
-      <c r="G81"/>
+      <c r="G81" t="b">
+        <v>0</v>
+      </c>
       <c r="H81"/>
       <c r="I81" t="b">
-        <v>0</v>
-      </c>
-      <c r="J81"/>
-      <c r="K81" t="b">
-        <v>1</v>
-      </c>
-      <c r="L81" t="b">
+        <v>1</v>
+      </c>
+      <c r="J81" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="B82" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C82" t="s">
         <v>51</v>
@@ -3230,25 +3040,23 @@
       <c r="D82"/>
       <c r="E82"/>
       <c r="F82"/>
-      <c r="G82"/>
+      <c r="G82" t="b">
+        <v>0</v>
+      </c>
       <c r="H82"/>
       <c r="I82" t="b">
-        <v>0</v>
-      </c>
-      <c r="J82"/>
-      <c r="K82" t="b">
-        <v>1</v>
-      </c>
-      <c r="L82" t="b">
+        <v>1</v>
+      </c>
+      <c r="J82" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
+        <v>126</v>
+      </c>
+      <c r="B83" t="s">
         <v>120</v>
-      </c>
-      <c r="B83" t="s">
-        <v>119</v>
       </c>
       <c r="C83" t="s">
         <v>51</v>
@@ -3256,103 +3064,103 @@
       <c r="D83"/>
       <c r="E83"/>
       <c r="F83"/>
-      <c r="G83"/>
+      <c r="G83" t="b">
+        <v>0</v>
+      </c>
       <c r="H83"/>
       <c r="I83" t="b">
-        <v>0</v>
-      </c>
-      <c r="J83"/>
-      <c r="K83" t="b">
-        <v>1</v>
-      </c>
-      <c r="L83" t="b">
+        <v>1</v>
+      </c>
+      <c r="J83" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="B84" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C84" t="s">
-        <v>51</v>
-      </c>
-      <c r="D84"/>
+        <v>61</v>
+      </c>
+      <c r="D84" t="b">
+        <v>0</v>
+      </c>
       <c r="E84"/>
       <c r="F84"/>
-      <c r="G84"/>
+      <c r="G84" t="b">
+        <v>0</v>
+      </c>
       <c r="H84"/>
       <c r="I84" t="b">
-        <v>0</v>
-      </c>
-      <c r="J84"/>
-      <c r="K84" t="b">
-        <v>1</v>
-      </c>
-      <c r="L84" t="b">
+        <v>1</v>
+      </c>
+      <c r="J84" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="B85" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C85" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D85"/>
       <c r="E85"/>
       <c r="F85"/>
-      <c r="G85"/>
+      <c r="G85" t="b">
+        <v>0</v>
+      </c>
       <c r="H85"/>
       <c r="I85" t="b">
-        <v>0</v>
-      </c>
-      <c r="J85"/>
-      <c r="K85" t="b">
-        <v>1</v>
-      </c>
-      <c r="L85" t="b">
+        <v>1</v>
+      </c>
+      <c r="J85" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="B86" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C86" t="s">
         <v>51</v>
       </c>
       <c r="D86"/>
-      <c r="E86"/>
-      <c r="F86"/>
-      <c r="G86"/>
-      <c r="H86"/>
+      <c r="E86" t="s">
+        <v>65</v>
+      </c>
+      <c r="F86" t="s">
+        <v>66</v>
+      </c>
+      <c r="G86" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86" t="b">
+        <v>1</v>
+      </c>
       <c r="I86" t="b">
         <v>0</v>
       </c>
-      <c r="J86"/>
-      <c r="K86" t="b">
-        <v>1</v>
-      </c>
-      <c r="L86" t="b">
-        <v>0</v>
+      <c r="J86" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>124</v>
+        <v>49</v>
       </c>
       <c r="B87" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C87" t="s">
         <v>51</v>
@@ -3360,25 +3168,23 @@
       <c r="D87"/>
       <c r="E87"/>
       <c r="F87"/>
-      <c r="G87"/>
+      <c r="G87" t="b">
+        <v>0</v>
+      </c>
       <c r="H87"/>
       <c r="I87" t="b">
-        <v>0</v>
-      </c>
-      <c r="J87"/>
-      <c r="K87" t="b">
-        <v>1</v>
-      </c>
-      <c r="L87" t="b">
+        <v>1</v>
+      </c>
+      <c r="J87" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="B88" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C88" t="s">
         <v>51</v>
@@ -3386,25 +3192,23 @@
       <c r="D88"/>
       <c r="E88"/>
       <c r="F88"/>
-      <c r="G88"/>
+      <c r="G88" t="b">
+        <v>0</v>
+      </c>
       <c r="H88"/>
       <c r="I88" t="b">
-        <v>0</v>
-      </c>
-      <c r="J88"/>
-      <c r="K88" t="b">
-        <v>1</v>
-      </c>
-      <c r="L88" t="b">
+        <v>1</v>
+      </c>
+      <c r="J88" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="B89" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C89" t="s">
         <v>51</v>
@@ -3412,25 +3216,23 @@
       <c r="D89"/>
       <c r="E89"/>
       <c r="F89"/>
-      <c r="G89"/>
+      <c r="G89" t="b">
+        <v>0</v>
+      </c>
       <c r="H89"/>
       <c r="I89" t="b">
-        <v>0</v>
-      </c>
-      <c r="J89"/>
-      <c r="K89" t="b">
-        <v>1</v>
-      </c>
-      <c r="L89" t="b">
+        <v>1</v>
+      </c>
+      <c r="J89" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
+        <v>96</v>
+      </c>
+      <c r="B90" t="s">
         <v>127</v>
-      </c>
-      <c r="B90" t="s">
-        <v>119</v>
       </c>
       <c r="C90" t="s">
         <v>51</v>
@@ -3438,87 +3240,71 @@
       <c r="D90"/>
       <c r="E90"/>
       <c r="F90"/>
-      <c r="G90"/>
+      <c r="G90" t="b">
+        <v>0</v>
+      </c>
       <c r="H90"/>
       <c r="I90" t="b">
-        <v>0</v>
-      </c>
-      <c r="J90"/>
-      <c r="K90" t="b">
-        <v>1</v>
-      </c>
-      <c r="L90" t="b">
+        <v>1</v>
+      </c>
+      <c r="J90" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="B91" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C91" t="s">
-        <v>61</v>
-      </c>
-      <c r="D91" t="s">
-        <v>60</v>
-      </c>
-      <c r="E91" t="s">
-        <v>60</v>
-      </c>
-      <c r="F91" t="b">
-        <v>0</v>
-      </c>
-      <c r="G91"/>
+        <v>51</v>
+      </c>
+      <c r="D91"/>
+      <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91" t="b">
+        <v>0</v>
+      </c>
       <c r="H91"/>
       <c r="I91" t="b">
-        <v>0</v>
-      </c>
-      <c r="J91"/>
-      <c r="K91" t="b">
-        <v>1</v>
-      </c>
-      <c r="L91" t="b">
+        <v>1</v>
+      </c>
+      <c r="J91" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="B92" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C92" t="s">
-        <v>63</v>
-      </c>
-      <c r="D92" t="s">
-        <v>64</v>
-      </c>
-      <c r="E92" t="s">
-        <v>64</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D92"/>
+      <c r="E92"/>
       <c r="F92"/>
-      <c r="G92"/>
+      <c r="G92" t="b">
+        <v>0</v>
+      </c>
       <c r="H92"/>
       <c r="I92" t="b">
-        <v>0</v>
-      </c>
-      <c r="J92"/>
-      <c r="K92" t="b">
-        <v>1</v>
-      </c>
-      <c r="L92" t="b">
+        <v>1</v>
+      </c>
+      <c r="J92" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="B93" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C93" t="s">
         <v>51</v>
@@ -3526,31 +3312,23 @@
       <c r="D93"/>
       <c r="E93"/>
       <c r="F93"/>
-      <c r="G93" t="s">
-        <v>66</v>
-      </c>
-      <c r="H93" t="s">
-        <v>67</v>
-      </c>
+      <c r="G93" t="b">
+        <v>0</v>
+      </c>
+      <c r="H93"/>
       <c r="I93" t="b">
         <v>1</v>
       </c>
       <c r="J93" t="b">
-        <v>1</v>
-      </c>
-      <c r="K93" t="b">
-        <v>0</v>
-      </c>
-      <c r="L93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="B94" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C94" t="s">
         <v>51</v>
@@ -3558,25 +3336,23 @@
       <c r="D94"/>
       <c r="E94"/>
       <c r="F94"/>
-      <c r="G94"/>
+      <c r="G94" t="b">
+        <v>0</v>
+      </c>
       <c r="H94"/>
       <c r="I94" t="b">
-        <v>0</v>
-      </c>
-      <c r="J94"/>
-      <c r="K94" t="b">
-        <v>1</v>
-      </c>
-      <c r="L94" t="b">
+        <v>1</v>
+      </c>
+      <c r="J94" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B95" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C95" t="s">
         <v>51</v>
@@ -3584,25 +3360,23 @@
       <c r="D95"/>
       <c r="E95"/>
       <c r="F95"/>
-      <c r="G95"/>
+      <c r="G95" t="b">
+        <v>0</v>
+      </c>
       <c r="H95"/>
       <c r="I95" t="b">
-        <v>0</v>
-      </c>
-      <c r="J95"/>
-      <c r="K95" t="b">
-        <v>1</v>
-      </c>
-      <c r="L95" t="b">
+        <v>1</v>
+      </c>
+      <c r="J95" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B96" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C96" t="s">
         <v>51</v>
@@ -3610,25 +3384,23 @@
       <c r="D96"/>
       <c r="E96"/>
       <c r="F96"/>
-      <c r="G96"/>
+      <c r="G96" t="b">
+        <v>0</v>
+      </c>
       <c r="H96"/>
       <c r="I96" t="b">
-        <v>0</v>
-      </c>
-      <c r="J96"/>
-      <c r="K96" t="b">
-        <v>1</v>
-      </c>
-      <c r="L96" t="b">
+        <v>1</v>
+      </c>
+      <c r="J96" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="B97" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C97" t="s">
         <v>51</v>
@@ -3636,25 +3408,23 @@
       <c r="D97"/>
       <c r="E97"/>
       <c r="F97"/>
-      <c r="G97"/>
+      <c r="G97" t="b">
+        <v>0</v>
+      </c>
       <c r="H97"/>
       <c r="I97" t="b">
-        <v>0</v>
-      </c>
-      <c r="J97"/>
-      <c r="K97" t="b">
-        <v>1</v>
-      </c>
-      <c r="L97" t="b">
+        <v>1</v>
+      </c>
+      <c r="J97" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B98" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C98" t="s">
         <v>51</v>
@@ -3662,25 +3432,23 @@
       <c r="D98"/>
       <c r="E98"/>
       <c r="F98"/>
-      <c r="G98"/>
+      <c r="G98" t="b">
+        <v>0</v>
+      </c>
       <c r="H98"/>
       <c r="I98" t="b">
-        <v>0</v>
-      </c>
-      <c r="J98"/>
-      <c r="K98" t="b">
-        <v>1</v>
-      </c>
-      <c r="L98" t="b">
+        <v>1</v>
+      </c>
+      <c r="J98" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B99" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C99" t="s">
         <v>51</v>
@@ -3688,25 +3456,23 @@
       <c r="D99"/>
       <c r="E99"/>
       <c r="F99"/>
-      <c r="G99"/>
+      <c r="G99" t="b">
+        <v>0</v>
+      </c>
       <c r="H99"/>
       <c r="I99" t="b">
-        <v>0</v>
-      </c>
-      <c r="J99"/>
-      <c r="K99" t="b">
-        <v>1</v>
-      </c>
-      <c r="L99" t="b">
+        <v>1</v>
+      </c>
+      <c r="J99" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B100" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C100" t="s">
         <v>51</v>
@@ -3714,103 +3480,103 @@
       <c r="D100"/>
       <c r="E100"/>
       <c r="F100"/>
-      <c r="G100"/>
+      <c r="G100" t="b">
+        <v>0</v>
+      </c>
       <c r="H100"/>
       <c r="I100" t="b">
-        <v>0</v>
-      </c>
-      <c r="J100"/>
-      <c r="K100" t="b">
-        <v>1</v>
-      </c>
-      <c r="L100" t="b">
+        <v>1</v>
+      </c>
+      <c r="J100" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="B101" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C101" t="s">
-        <v>51</v>
-      </c>
-      <c r="D101"/>
+        <v>61</v>
+      </c>
+      <c r="D101" t="b">
+        <v>0</v>
+      </c>
       <c r="E101"/>
       <c r="F101"/>
-      <c r="G101"/>
+      <c r="G101" t="b">
+        <v>0</v>
+      </c>
       <c r="H101"/>
       <c r="I101" t="b">
-        <v>0</v>
-      </c>
-      <c r="J101"/>
-      <c r="K101" t="b">
-        <v>1</v>
-      </c>
-      <c r="L101" t="b">
+        <v>1</v>
+      </c>
+      <c r="J101" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>133</v>
+        <v>62</v>
       </c>
       <c r="B102" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C102" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D102"/>
       <c r="E102"/>
       <c r="F102"/>
-      <c r="G102"/>
+      <c r="G102" t="b">
+        <v>0</v>
+      </c>
       <c r="H102"/>
       <c r="I102" t="b">
-        <v>0</v>
-      </c>
-      <c r="J102"/>
-      <c r="K102" t="b">
-        <v>1</v>
-      </c>
-      <c r="L102" t="b">
+        <v>1</v>
+      </c>
+      <c r="J102" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>116</v>
+        <v>64</v>
       </c>
       <c r="B103" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C103" t="s">
         <v>51</v>
       </c>
       <c r="D103"/>
-      <c r="E103"/>
-      <c r="F103"/>
-      <c r="G103"/>
-      <c r="H103"/>
+      <c r="E103" t="s">
+        <v>65</v>
+      </c>
+      <c r="F103" t="s">
+        <v>66</v>
+      </c>
+      <c r="G103" t="b">
+        <v>1</v>
+      </c>
+      <c r="H103" t="b">
+        <v>1</v>
+      </c>
       <c r="I103" t="b">
         <v>0</v>
       </c>
-      <c r="J103"/>
-      <c r="K103" t="b">
-        <v>1</v>
-      </c>
-      <c r="L103" t="b">
-        <v>0</v>
+      <c r="J103" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="B104" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C104" t="s">
         <v>51</v>
@@ -3818,25 +3584,23 @@
       <c r="D104"/>
       <c r="E104"/>
       <c r="F104"/>
-      <c r="G104"/>
+      <c r="G104" t="b">
+        <v>0</v>
+      </c>
       <c r="H104"/>
       <c r="I104" t="b">
-        <v>0</v>
-      </c>
-      <c r="J104"/>
-      <c r="K104" t="b">
-        <v>1</v>
-      </c>
-      <c r="L104" t="b">
+        <v>1</v>
+      </c>
+      <c r="J104" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B105" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C105" t="s">
         <v>51</v>
@@ -3844,25 +3608,23 @@
       <c r="D105"/>
       <c r="E105"/>
       <c r="F105"/>
-      <c r="G105"/>
+      <c r="G105" t="b">
+        <v>0</v>
+      </c>
       <c r="H105"/>
       <c r="I105" t="b">
-        <v>0</v>
-      </c>
-      <c r="J105"/>
-      <c r="K105" t="b">
-        <v>1</v>
-      </c>
-      <c r="L105" t="b">
+        <v>1</v>
+      </c>
+      <c r="J105" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B106" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C106" t="s">
         <v>51</v>
@@ -3870,87 +3632,71 @@
       <c r="D106"/>
       <c r="E106"/>
       <c r="F106"/>
-      <c r="G106"/>
+      <c r="G106" t="b">
+        <v>0</v>
+      </c>
       <c r="H106"/>
       <c r="I106" t="b">
-        <v>0</v>
-      </c>
-      <c r="J106"/>
-      <c r="K106" t="b">
-        <v>1</v>
-      </c>
-      <c r="L106" t="b">
+        <v>1</v>
+      </c>
+      <c r="J106" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="B107" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C107" t="s">
-        <v>61</v>
-      </c>
-      <c r="D107" t="s">
-        <v>60</v>
-      </c>
-      <c r="E107" t="s">
-        <v>60</v>
-      </c>
-      <c r="F107" t="b">
-        <v>0</v>
-      </c>
-      <c r="G107"/>
+        <v>51</v>
+      </c>
+      <c r="D107"/>
+      <c r="E107"/>
+      <c r="F107"/>
+      <c r="G107" t="b">
+        <v>0</v>
+      </c>
       <c r="H107"/>
       <c r="I107" t="b">
-        <v>0</v>
-      </c>
-      <c r="J107"/>
-      <c r="K107" t="b">
-        <v>1</v>
-      </c>
-      <c r="L107" t="b">
+        <v>1</v>
+      </c>
+      <c r="J107" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="B108" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C108" t="s">
-        <v>63</v>
-      </c>
-      <c r="D108" t="s">
-        <v>64</v>
-      </c>
-      <c r="E108" t="s">
-        <v>64</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D108"/>
+      <c r="E108"/>
       <c r="F108"/>
-      <c r="G108"/>
+      <c r="G108" t="b">
+        <v>0</v>
+      </c>
       <c r="H108"/>
       <c r="I108" t="b">
-        <v>0</v>
-      </c>
-      <c r="J108"/>
-      <c r="K108" t="b">
-        <v>1</v>
-      </c>
-      <c r="L108" t="b">
+        <v>1</v>
+      </c>
+      <c r="J108" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="B109" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C109" t="s">
         <v>51</v>
@@ -3958,28 +3704,20 @@
       <c r="D109"/>
       <c r="E109"/>
       <c r="F109"/>
-      <c r="G109" t="s">
-        <v>66</v>
-      </c>
-      <c r="H109" t="s">
-        <v>67</v>
-      </c>
+      <c r="G109" t="b">
+        <v>0</v>
+      </c>
+      <c r="H109"/>
       <c r="I109" t="b">
         <v>1</v>
       </c>
       <c r="J109" t="b">
-        <v>1</v>
-      </c>
-      <c r="K109" t="b">
-        <v>0</v>
-      </c>
-      <c r="L109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B110" t="s">
         <v>136</v>
@@ -3990,26 +3728,20 @@
       <c r="D110"/>
       <c r="E110"/>
       <c r="F110"/>
-      <c r="G110" t="s">
-        <v>137</v>
-      </c>
-      <c r="H110" t="s">
-        <v>138</v>
-      </c>
+      <c r="G110" t="b">
+        <v>0</v>
+      </c>
+      <c r="H110"/>
       <c r="I110" t="b">
-        <v>0</v>
-      </c>
-      <c r="J110"/>
-      <c r="K110" t="b">
-        <v>1</v>
-      </c>
-      <c r="L110" t="b">
+        <v>1</v>
+      </c>
+      <c r="J110" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B111" t="s">
         <v>136</v>
@@ -4020,26 +3752,20 @@
       <c r="D111"/>
       <c r="E111"/>
       <c r="F111"/>
-      <c r="G111" t="s">
-        <v>140</v>
-      </c>
-      <c r="H111" t="s">
-        <v>141</v>
-      </c>
+      <c r="G111" t="b">
+        <v>0</v>
+      </c>
+      <c r="H111"/>
       <c r="I111" t="b">
-        <v>0</v>
-      </c>
-      <c r="J111"/>
-      <c r="K111" t="b">
-        <v>1</v>
-      </c>
-      <c r="L111" t="b">
+        <v>1</v>
+      </c>
+      <c r="J111" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B112" t="s">
         <v>136</v>
@@ -4050,22 +3776,20 @@
       <c r="D112"/>
       <c r="E112"/>
       <c r="F112"/>
-      <c r="G112"/>
+      <c r="G112" t="b">
+        <v>0</v>
+      </c>
       <c r="H112"/>
       <c r="I112" t="b">
-        <v>0</v>
-      </c>
-      <c r="J112"/>
-      <c r="K112" t="b">
-        <v>1</v>
-      </c>
-      <c r="L112" t="b">
+        <v>1</v>
+      </c>
+      <c r="J112" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="B113" t="s">
         <v>136</v>
@@ -4076,78 +3800,68 @@
       <c r="D113"/>
       <c r="E113"/>
       <c r="F113"/>
-      <c r="G113"/>
+      <c r="G113" t="b">
+        <v>0</v>
+      </c>
       <c r="H113"/>
       <c r="I113" t="b">
-        <v>0</v>
-      </c>
-      <c r="J113"/>
-      <c r="K113" t="b">
-        <v>1</v>
-      </c>
-      <c r="L113" t="b">
+        <v>1</v>
+      </c>
+      <c r="J113" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B114" t="s">
         <v>136</v>
       </c>
       <c r="C114" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D114"/>
       <c r="E114"/>
       <c r="F114"/>
-      <c r="G114"/>
+      <c r="G114" t="b">
+        <v>0</v>
+      </c>
       <c r="H114"/>
       <c r="I114" t="b">
-        <v>0</v>
-      </c>
-      <c r="J114"/>
-      <c r="K114" t="b">
-        <v>1</v>
-      </c>
-      <c r="L114" t="b">
+        <v>1</v>
+      </c>
+      <c r="J114" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="B115" t="s">
         <v>136</v>
       </c>
       <c r="C115" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D115"/>
       <c r="E115"/>
       <c r="F115"/>
-      <c r="G115" t="s">
-        <v>146</v>
-      </c>
-      <c r="H115" t="s">
-        <v>146</v>
-      </c>
+      <c r="G115" t="b">
+        <v>0</v>
+      </c>
+      <c r="H115"/>
       <c r="I115" t="b">
-        <v>0</v>
-      </c>
-      <c r="J115"/>
-      <c r="K115" t="b">
-        <v>1</v>
-      </c>
-      <c r="L115" t="b">
+        <v>1</v>
+      </c>
+      <c r="J115" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="B116" t="s">
         <v>136</v>
@@ -4158,16 +3872,14 @@
       <c r="D116"/>
       <c r="E116"/>
       <c r="F116"/>
-      <c r="G116"/>
+      <c r="G116" t="b">
+        <v>0</v>
+      </c>
       <c r="H116"/>
       <c r="I116" t="b">
-        <v>0</v>
-      </c>
-      <c r="J116"/>
-      <c r="K116" t="b">
-        <v>1</v>
-      </c>
-      <c r="L116" t="b">
+        <v>1</v>
+      </c>
+      <c r="J116" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4181,25 +3893,19 @@
       <c r="C117" t="s">
         <v>61</v>
       </c>
-      <c r="D117" t="s">
-        <v>60</v>
-      </c>
-      <c r="E117" t="s">
-        <v>60</v>
-      </c>
-      <c r="F117" t="b">
-        <v>0</v>
-      </c>
-      <c r="G117"/>
+      <c r="D117" t="b">
+        <v>0</v>
+      </c>
+      <c r="E117"/>
+      <c r="F117"/>
+      <c r="G117" t="b">
+        <v>0</v>
+      </c>
       <c r="H117"/>
       <c r="I117" t="b">
-        <v>0</v>
-      </c>
-      <c r="J117"/>
-      <c r="K117" t="b">
-        <v>1</v>
-      </c>
-      <c r="L117" t="b">
+        <v>1</v>
+      </c>
+      <c r="J117" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4213,29 +3919,23 @@
       <c r="C118" t="s">
         <v>63</v>
       </c>
-      <c r="D118" t="s">
-        <v>64</v>
-      </c>
-      <c r="E118" t="s">
-        <v>64</v>
-      </c>
+      <c r="D118"/>
+      <c r="E118"/>
       <c r="F118"/>
-      <c r="G118"/>
+      <c r="G118" t="b">
+        <v>0</v>
+      </c>
       <c r="H118"/>
       <c r="I118" t="b">
-        <v>0</v>
-      </c>
-      <c r="J118"/>
-      <c r="K118" t="b">
-        <v>1</v>
-      </c>
-      <c r="L118" t="b">
+        <v>1</v>
+      </c>
+      <c r="J118" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B119" t="s">
         <v>136</v>
@@ -4244,24 +3944,282 @@
         <v>51</v>
       </c>
       <c r="D119"/>
-      <c r="E119"/>
-      <c r="F119"/>
-      <c r="G119" t="s">
+      <c r="E119" t="s">
+        <v>65</v>
+      </c>
+      <c r="F119" t="s">
         <v>66</v>
       </c>
-      <c r="H119" t="s">
-        <v>67</v>
+      <c r="G119" t="b">
+        <v>1</v>
+      </c>
+      <c r="H119" t="b">
+        <v>1</v>
       </c>
       <c r="I119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="b">
         <v>1</v>
       </c>
-      <c r="K119" t="b">
-        <v>0</v>
-      </c>
-      <c r="L119" t="b">
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>143</v>
+      </c>
+      <c r="B120" t="s">
+        <v>144</v>
+      </c>
+      <c r="C120" t="s">
+        <v>51</v>
+      </c>
+      <c r="D120"/>
+      <c r="E120" t="s">
+        <v>145</v>
+      </c>
+      <c r="F120" t="s">
+        <v>146</v>
+      </c>
+      <c r="G120" t="b">
+        <v>0</v>
+      </c>
+      <c r="H120"/>
+      <c r="I120" t="b">
+        <v>1</v>
+      </c>
+      <c r="J120" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>147</v>
+      </c>
+      <c r="B121" t="s">
+        <v>144</v>
+      </c>
+      <c r="C121" t="s">
+        <v>51</v>
+      </c>
+      <c r="D121"/>
+      <c r="E121" t="s">
+        <v>148</v>
+      </c>
+      <c r="F121" t="s">
+        <v>149</v>
+      </c>
+      <c r="G121" t="b">
+        <v>0</v>
+      </c>
+      <c r="H121"/>
+      <c r="I121" t="b">
+        <v>1</v>
+      </c>
+      <c r="J121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>150</v>
+      </c>
+      <c r="B122" t="s">
+        <v>144</v>
+      </c>
+      <c r="C122" t="s">
+        <v>51</v>
+      </c>
+      <c r="D122"/>
+      <c r="E122"/>
+      <c r="F122"/>
+      <c r="G122" t="b">
+        <v>0</v>
+      </c>
+      <c r="H122"/>
+      <c r="I122" t="b">
+        <v>1</v>
+      </c>
+      <c r="J122" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>151</v>
+      </c>
+      <c r="B123" t="s">
+        <v>144</v>
+      </c>
+      <c r="C123" t="s">
+        <v>51</v>
+      </c>
+      <c r="D123"/>
+      <c r="E123"/>
+      <c r="F123"/>
+      <c r="G123" t="b">
+        <v>0</v>
+      </c>
+      <c r="H123"/>
+      <c r="I123" t="b">
+        <v>1</v>
+      </c>
+      <c r="J123" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>152</v>
+      </c>
+      <c r="B124" t="s">
+        <v>144</v>
+      </c>
+      <c r="C124" t="s">
+        <v>57</v>
+      </c>
+      <c r="D124"/>
+      <c r="E124"/>
+      <c r="F124"/>
+      <c r="G124" t="b">
+        <v>0</v>
+      </c>
+      <c r="H124"/>
+      <c r="I124" t="b">
+        <v>1</v>
+      </c>
+      <c r="J124" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>153</v>
+      </c>
+      <c r="B125" t="s">
+        <v>144</v>
+      </c>
+      <c r="C125" t="s">
+        <v>57</v>
+      </c>
+      <c r="D125"/>
+      <c r="E125" t="s">
+        <v>154</v>
+      </c>
+      <c r="F125" t="s">
+        <v>154</v>
+      </c>
+      <c r="G125" t="b">
+        <v>0</v>
+      </c>
+      <c r="H125"/>
+      <c r="I125" t="b">
+        <v>1</v>
+      </c>
+      <c r="J125" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>155</v>
+      </c>
+      <c r="B126" t="s">
+        <v>144</v>
+      </c>
+      <c r="C126" t="s">
+        <v>51</v>
+      </c>
+      <c r="D126"/>
+      <c r="E126"/>
+      <c r="F126"/>
+      <c r="G126" t="b">
+        <v>0</v>
+      </c>
+      <c r="H126"/>
+      <c r="I126" t="b">
+        <v>1</v>
+      </c>
+      <c r="J126" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>60</v>
+      </c>
+      <c r="B127" t="s">
+        <v>144</v>
+      </c>
+      <c r="C127" t="s">
+        <v>61</v>
+      </c>
+      <c r="D127" t="b">
+        <v>0</v>
+      </c>
+      <c r="E127"/>
+      <c r="F127"/>
+      <c r="G127" t="b">
+        <v>0</v>
+      </c>
+      <c r="H127"/>
+      <c r="I127" t="b">
+        <v>1</v>
+      </c>
+      <c r="J127" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>62</v>
+      </c>
+      <c r="B128" t="s">
+        <v>144</v>
+      </c>
+      <c r="C128" t="s">
+        <v>63</v>
+      </c>
+      <c r="D128"/>
+      <c r="E128"/>
+      <c r="F128"/>
+      <c r="G128" t="b">
+        <v>0</v>
+      </c>
+      <c r="H128"/>
+      <c r="I128" t="b">
+        <v>1</v>
+      </c>
+      <c r="J128" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>64</v>
+      </c>
+      <c r="B129" t="s">
+        <v>144</v>
+      </c>
+      <c r="C129" t="s">
+        <v>51</v>
+      </c>
+      <c r="D129"/>
+      <c r="E129" t="s">
+        <v>65</v>
+      </c>
+      <c r="F129" t="s">
+        <v>66</v>
+      </c>
+      <c r="G129" t="b">
+        <v>1</v>
+      </c>
+      <c r="H129" t="b">
+        <v>1</v>
+      </c>
+      <c r="I129" t="b">
+        <v>0</v>
+      </c>
+      <c r="J129" t="b">
         <v>1</v>
       </c>
     </row>

--- a/emx/cosas-portal/cosasportal.xlsx
+++ b/emx/cosas-portal/cosasportal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -31,7 +31,7 @@
     <t xml:space="preserve">COSAS Portal</t>
   </si>
   <si>
-    <t xml:space="preserve">Staging tables for raw data extracts (v0.901, 2021-08-19)</t>
+    <t xml:space="preserve">Staging tables for raw data extracts (v0.9011, 2021-08-30)</t>
   </si>
   <si>
     <t xml:space="preserve">label-nl</t>
@@ -482,6 +482,9 @@
   </si>
   <si>
     <t xml:space="preserve">created</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phenotype</t>
   </si>
 </sst>
 </file>
@@ -4171,13 +4174,13 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>62</v>
+        <v>156</v>
       </c>
       <c r="B128" t="s">
         <v>144</v>
       </c>
       <c r="C128" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D128"/>
       <c r="E128"/>
@@ -4195,31 +4198,55 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B129" t="s">
         <v>144</v>
       </c>
       <c r="C129" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D129"/>
-      <c r="E129" t="s">
+      <c r="E129"/>
+      <c r="F129"/>
+      <c r="G129" t="b">
+        <v>0</v>
+      </c>
+      <c r="H129"/>
+      <c r="I129" t="b">
+        <v>1</v>
+      </c>
+      <c r="J129" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>64</v>
+      </c>
+      <c r="B130" t="s">
+        <v>144</v>
+      </c>
+      <c r="C130" t="s">
+        <v>51</v>
+      </c>
+      <c r="D130"/>
+      <c r="E130" t="s">
         <v>65</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F130" t="s">
         <v>66</v>
       </c>
-      <c r="G129" t="b">
-        <v>1</v>
-      </c>
-      <c r="H129" t="b">
-        <v>1</v>
-      </c>
-      <c r="I129" t="b">
-        <v>0</v>
-      </c>
-      <c r="J129" t="b">
+      <c r="G130" t="b">
+        <v>1</v>
+      </c>
+      <c r="H130" t="b">
+        <v>1</v>
+      </c>
+      <c r="I130" t="b">
+        <v>0</v>
+      </c>
+      <c r="J130" t="b">
         <v>1</v>
       </c>
     </row>
